--- a/question-logs/PMP_Questions - PMBOK 7.xlsx
+++ b/question-logs/PMP_Questions - PMBOK 7.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razer\Desktop\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/142dd5fbcad2da9d/Desktop/PMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE77FF0-DA84-4AF1-A1D0-3E50164CE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{1E13D942-726B-472C-A8BF-EF4A56DC847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1025EAC2-B581-4C32-A1C7-3DB6882655B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMI Infinity" sheetId="4" r:id="rId1"/>
-    <sheet name="David PMP QA" sheetId="1" r:id="rId2"/>
-    <sheet name="PMI Study Hall" sheetId="5" r:id="rId3"/>
-    <sheet name="Notes" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="David PMP QA" sheetId="1" r:id="rId3"/>
+    <sheet name="PMI Study Hall" sheetId="5" r:id="rId4"/>
+    <sheet name="Notes" sheetId="2" r:id="rId5"/>
+    <sheet name="PMI Study Hall Practice Exam" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="849">
   <si>
     <t>Question</t>
   </si>
@@ -2112,65 +2115,18 @@
 D. Project charter</t>
   </si>
   <si>
-    <t>The quality management plan defines the standards for the project deliverables and how compliance with the standards can be demonstrated. The project charter will not have this level of detail. Likewise, the scope and requirements should not change or list specific responses to the quality acceptance criteria of the project deliverables.
-This question and rationale were developed in reference to:
-PMBOK Guide Sixth Edition (2018) PMI/PMI/5.5.3.1/202 [Item]
-The Project Management Tool Kit: 100 Tips and Techniques for Getting the Job Done Right (2004) Tom Kendrick/AMACOM/41/100 [Item]</t>
-  </si>
-  <si>
-    <t>A manufacturing company receives customer complaints that a product is defective. A project sponsor has said that these complaints might be outliers.
-What should the project manager use to investigate the cause and quantity of defects in this product?</t>
-  </si>
-  <si>
     <t>A. Flowcharts
 B. Affinity diagram
 C. Control chart
 D. Histogram</t>
   </si>
   <si>
-    <t>Histogram is correct because it can show the number of defects per deliverable, a ranking of the cause of defects, the number of times each process is noncompliant, or other representations of project or product defects.
-Flowchart is not correct because it shows a series of steps that lead to a defect.
-Affinity diagram is not correct because it can organize potential causes of defects into groups showing areas that should be focused on the most.
-Control chart is not correct because it is used to determine whether or not a process is stable or has predictable performance.
-This question and rationale were developed in reference to:
-e-Reads (No Date) / J. Ross Publishing / Project Quality Management: Why, What and How by Kenneth H. Rose / Chapter 7 – Collecting and Understanding Project Data [Item]
-PMBOK Guide Sixth Edition (2018) PMI/PMI/8/298 [Item]</t>
-  </si>
-  <si>
-    <t>A project manager is reviewing work performance data in preparation for the close project process. The data reveals that one of the deliverables was not accepted. The estimated work required to complete acceptance of the deliverable will delay the project completion date by two months.
-What should the project manager do next?</t>
-  </si>
-  <si>
-    <t>A. Allocate the contingency reserve to procure resources needed for completion.
-B. Update the schedule and perform the work.
-C. Issue a change request for review by the change control board (CCB).
-D. Update the watch list in the risk register.</t>
-  </si>
-  <si>
-    <t>Since one of the completed deliverables was not formally accepted, it may require a change request for defect repair. Change requests are processed for review and disposition through the Perform Integrated Change Control process. Even though the project is nearing closure, the project manager must still submit a change request to the CCB and follow formal change control procedures.
-The other options are incorrect because they represent actions taken after a change request has been reviewed and approved (e.g., updating schedule, using reserves) or they relate to risks that have not yet materialized (updating the watch list).</t>
-  </si>
-  <si>
-    <t>A project has been closed and customer care needs to measure customer satisfaction with the deliverables.
-What should be done next?</t>
-  </si>
-  <si>
     <t>A. Negotiate additional contract with customer for similar service.
 B. Schedule meeting with stakeholders and customer to discuss lessons learned.
 C. Evaluate project deliverables and review customer feedback documents.
 D. Audit project success by reviewing closing documentation for each project phase.</t>
   </si>
   <si>
-    <t>Evaluate – Closure meetings are used to confirm deliverables have been accepted, validate if acceptance criteria have been met, formalize contract completion, evaluate stakeholders’ satisfaction, gather lessons learned, transfer project knowledge and information, and celebrate success. Customer satisfaction can be derived by referring to customer feedback documents.
-Negotiate – Not initiated by the customer. No need to negotiate an additional contract with the customer.
-Schedule – Previously performed at project closure. As part of the project closure meeting, lessons learned can be covered.
-Audit – No relevance to the question; part of the gate review process.
-This question and rationale were developed in reference to:
-e-Reads (No Date) /// Keeping Score Using the Right Metrics by Mark Graham Brown, 1996. Chapter 6 Measuring Customer Satisfaction Value, item “Method of identifying customer requirements” [Item]
-PMBOK Guide Sixth Edition, 6th edition (2017) PMI/PMI/4/127 [Item 4.7.2.3 Meetings]
-PMBOK Guide—Fifth Edition (5th) PMI/PMI/Chapter 8 Project Quality Management, page 229 [Item]</t>
-  </si>
-  <si>
     <t>A project manager is working with stakeholders to identify the steps that must be completed as part of a task. The project manager needs to be able to verify that team members have completed all the steps required when performing a frequently performed task.
 What should the project manager use?</t>
   </si>
@@ -2181,32 +2137,12 @@
 D. Facilitation</t>
   </si>
   <si>
-    <t>The project manager should use a checklist as it is generally used in validating that process steps have been implemented.
-The other answer choices are incorrect. Flowcharts can only be used to outline process steps, not verify that they have been conducted; histograms reflect frequency distribution and will not verify that team members have completed the tasks; and facilitation is the ability to effectively guide a group event to a successful decision, solution, or conclusion.
-This question and rationale were developed in reference to:
-PMBOK Guide Sixth Edition (2018) PMI/PMI//80 [Item]
-Project Management: A Systems Approach to Planning, Scheduling, and Controlling (2009) Harold Kerzner / John Wiley / 5.24/ [Item]</t>
-  </si>
-  <si>
-    <t>A project deliverable does not meet the functional requirements necessary to meet stakeholder needs. As a result, the customer refuses to accept the deliverable.
-How would defining the quality metrics have helped the project manager avoid this situation</t>
-  </si>
-  <si>
     <t>A. The test management plan would have evaluated the deliverable according to quality metrics before final acceptance.
 B. Quality metrics specified in the work breakdown structure (WBS) would have identified compliance specifications.
 C. Quality metrics would have described the attributes of the deliverable and how to measure them.
 D. Quality metrics in the requirements plan would have allowed for a new procurement process in case of component failure.</t>
   </si>
   <si>
-    <t>Quality metrics are a description of a project or product attribute and how to measure it; hence it would be able to identify whether the customer would be satisfied with the deliverable as the metrics are clear and objective.
-The Test Management plan takes reference from the Quality Metrics, hence it is not the correct option.
-The quality metrics in the WBS would only show what tasks will be performed to meet specifications, but those specifications may not be measured yet.
-Lastly, the option on allowing for a new procurement process will not help, as the question was about how defining Quality Metrics would have helped out.
-This question and rationale were developed in reference to:
-e-Reads (No Date) // Fundamentals of Effective Program Management: A Process Approach Based on the Global Standard / Ch 7 / [Item]
-PMBOK® Guide—Fifth Edition (No Date) PMI/PMI//8/242 [Item]</t>
-  </si>
-  <si>
     <t>A customer is concerned that the current project deliverable will not fulfill stated project requirements. What could be done to alleviate customer concerns?</t>
   </si>
   <si>
@@ -2216,20 +2152,1515 @@
 D. Ask a product owner to review the acceptance criteria previously discussed with the customer.</t>
   </si>
   <si>
-    <t>To align the customer expectations with the upcoming deliveries, the product owner should work with the customer to describe functional behavior as acceptance criteria (definition of Done).
-This question and rationale were developed in reference to:
-O’Reilly Platform (No Date) /// [Item The Agile Developer’s Handbook by Paul Flewelling, Packt Publishing, 2018 – Acceptance criteria]
-The Agile Practice Guide (No Date) PMI/PMI/5/52 [Item]</t>
-  </si>
-  <si>
-    <t>If the question emphasizes: customer concern, misalignment, expectations, acceptance of deliverables, then clarify &amp; align first (talk about acceptance criteria, DoD, requirements, demos, reviews).
-If you see wording like:
-“confirm specifications / requirements have been met” → Control Quality
-“obtain formal acceptance / sign-off / customer approval” → Validate (or Verify) Scope
-So C is related but one step later in the flow; D is the correct first action here.</t>
-  </si>
-  <si>
-    <t>Plan and manage Project/Phase Closure of Transition</t>
+    <t>PMI Practice Exam #1</t>
+  </si>
+  <si>
+    <t>A country implements new labor laws with specific requirements for labor health and safety.
+The company's existing procedures haven't been updated yet, but management informed all project managers of the regulations.
+What should the project managers do first?</t>
+  </si>
+  <si>
+    <t>A. Review the possible impacts of the updated regulations on their projects.
+B. Update their project risk register for emerging risks.
+C. Request that the human resources department update the procedures.
+D. Ask the corporate office for advice on how to define the best course of action.</t>
+  </si>
+  <si>
+    <t>Solution: A. Review the possible impacts of the updated regulations on their projects.
+By prioritizing a thorough review of the regulations' impact, the project manager takes a proactive and informed approach to ensuring project success under the new legal landscape. This demonstrates critical thinking, risk management, and leadership skills.
+The other answer choices are not as effective. While risk identification is important, updating the register should be based on a comprehensive understanding of the regulations' impact. While HR will eventually update procedures, the project manager needs to identify the specific impacts first to ensure efficient resource allocation and avoid unnecessary work. Consulting a corporate office can be valuable later, but the initial step should be a project-specific analysis to avoid unnecessary escalations and delays.</t>
+  </si>
+  <si>
+    <t>O'Reilly Platform //2// [Item Managing Health, Safety and Working Environment, Chapter 2]
+PMBOK Guide Sixth Edition (2018) PMI/PMI/2.2.2/39 [Item]</t>
+  </si>
+  <si>
+    <t>A project manager has been assigned to lead a cross-functional project team. During a brainstorming session, the project manager realizes that some team members do not see the need for a change, and this is affecting the team's output.
+What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Restate the objectives of the project to the team.
+B. Ask the project sponsor to review the project charter.
+C. Engage team members to understand their doubts and get their buy-in.
+D. End the brainstorming session and adopt interview methods.</t>
+  </si>
+  <si>
+    <t>Solution: C. Engage team members to understand their doubts and get their buy-in.
+By engaging team members to understand their doubts and get their buy-in, the project manager can address team members' concerns and get them on board with the project. This will help to improve the team's output and increase the chances of the project being successful.
+The other answer choices are not as effective. Restating the objectives of the project to the team may not be enough to convince team members who do not see the need for change. Asking the project sponsor to review the project charter may not be helpful, as the project charter may not address the specific reasons why some team members do not see the need for change. Ending the brainstorming session and adopting interview methods may be necessary in some cases, but it is not the best course of action in the first instance. It is important to try to engage team members and get their buy-in before moving on to other methods.</t>
+  </si>
+  <si>
+    <t>To avoid this, the project manager should have adopted all of the following measures, except which?</t>
+  </si>
+  <si>
+    <t>A. Changing the message to suit the context
+B. Adhering to the existing communication method
+C. Tailoring the communication style
+D. Reassessing the need for communication
+E. Validating the quality of the business proposal</t>
+  </si>
+  <si>
+    <t>To avoid miscommunication and increase project success, the project manager should adopt effective communication tailored to stakeholder needs. This includes changing the message to suit the context and validating quality. 'Adhering to existing methods' is what they failed at.</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>Which of the following could have been better used by ABC’s project manager to increase the chances of successfully obtaining the contract?</t>
+  </si>
+  <si>
+    <t>A. Monitoring the market landscape for the need for electric conductors
+B. Appointing a project manager with relevant domain knowledge of the project
+C. Effectively analyzing and tailoring stakeholder communication methods
+D. Launching the product in multiple geographical locations at the same time
+E. Conducting a brainstorming session with stakeholders at project inception</t>
+  </si>
+  <si>
+    <t>The project manager should have tailored stakeholder communication methods to better demonstrate product value. This would have increased the chance of contract success.</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Where should project documentation such as videos, pictures, audio be placed to ensure sharing of project experiences?</t>
+  </si>
+  <si>
+    <t>A. Lessons learned register
+B. Knowledge sharing register
+C. Risk register
+D. Issue log</t>
+  </si>
+  <si>
+    <t>Lessons learned register includes knowledge sharing (including pictures, videos, audios) and serves as an input/output to many processes to improve efficiency.</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>During an iteration, the team spent twice as much time as expected because one of the product backlog items was complex and could not be split into smaller items. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Adaptive approach  
+B. Predictive approach  
+C. Risk management plan  
+D. Reprioritize product backlog</t>
+  </si>
+  <si>
+    <t>The PO should reprioritize. Other actions don’t directly address the immediate complexity and delay.</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>A cross-functional project team is not aligned on the need for change. What should the PM do?</t>
+  </si>
+  <si>
+    <t>A. Restate objectives  
+B. Ask sponsor to review charter  
+C. Understand doubts, get buy-in  
+D. End session and interview</t>
+  </si>
+  <si>
+    <t>Engaging the team fosters buy-in and better outcomes. Others delay or deflect the issue.</t>
+  </si>
+  <si>
+    <t>New labor laws were announced. What should project managers do first?</t>
+  </si>
+  <si>
+    <t>A. Review impacts of regulations  
+B. Update risk register  
+C. Ask HR to update procedures  
+D. Ask corporate office for advice</t>
+  </si>
+  <si>
+    <t>Assessing project-specific impacts comes before broader organizational or procedural updates.</t>
+  </si>
+  <si>
+    <t>A customer is upset due to unresolved critical issue. What TWO actions should be taken?</t>
+  </si>
+  <si>
+    <t>A. Escalate for technical help  
+B. Explain with action plan  
+C. Keep working on backlog  
+D. Update logs  
+E. Set new release date</t>
+  </si>
+  <si>
+    <t>A and B</t>
+  </si>
+  <si>
+    <t>Address both technical root cause and customer communication.</t>
+  </si>
+  <si>
+    <t>Retrospective reveals unresolved issues harming velocity. How should the PM respond?</t>
+  </si>
+  <si>
+    <t>A. Ensure standups are attended  
+B. Document for later  
+C. Extend standups  
+D. Escalate to sponsor</t>
+  </si>
+  <si>
+    <t>Daily standups are for surfacing/removing blockers. Other choices waste time or defer responsibility.</t>
+  </si>
+  <si>
+    <t>Agile project has safety concerns. What should the PM do?</t>
+  </si>
+  <si>
+    <t>A. Send info to customer  
+B. Escalate to safety dept.  
+C. Create new policy  
+D. Include in Definition of Done</t>
+  </si>
+  <si>
+    <t>Including safety in the DoD ensures compliance at delivery. Other choices don’t guarantee results.</t>
+  </si>
+  <si>
+    <t>Vendor delay is affecting release. What should PM do?</t>
+  </si>
+  <si>
+    <t>A. Work with vendor  
+B. Update release date  
+C. Escalate via tech lead  
+D. Let team work together</t>
+  </si>
+  <si>
+    <t>PM must understand cause and alternatives with vendor before updating plans or escalating.</t>
+  </si>
+  <si>
+    <t>PM consolidates knowledge in videos/photos/audio. Where should this go?</t>
+  </si>
+  <si>
+    <t>A. Lessons learned register  
+B. Knowledge sharing register  
+C. Risk register  
+D. Issue log</t>
+  </si>
+  <si>
+    <t>Lessons learned can include all types of formats for capturing insights and recommendations.</t>
+  </si>
+  <si>
+    <t>PM discovers a missed foreign stakeholder. They request documents in their language. What should PM do?</t>
+  </si>
+  <si>
+    <t>A. Escalate to sponsor  
+B. Say documents are only in English  
+C. Update stakeholder register  
+D. Ignore the request</t>
+  </si>
+  <si>
+    <t>Always update the stakeholder register when someone new is identified.</t>
+  </si>
+  <si>
+    <t>ABC Electric failed due to poor communication. What key attribute is emphasized?</t>
+  </si>
+  <si>
+    <t>A. Interactive communication  
+B. Who/how/when/context  
+C. Pull communication  
+D. None of the above</t>
+  </si>
+  <si>
+    <t>Effective communication planning includes format, timing, and audience awareness.</t>
+  </si>
+  <si>
+    <t>ABC Electric PM failed to get stakeholder response. Which action should NOT have been taken?</t>
+  </si>
+  <si>
+    <t>A. Change message  
+B. Adhere to existing method  
+C. Tailor style  
+D. Reassess need for comm.  
+E. Validate proposal quality</t>
+  </si>
+  <si>
+    <t>Adhering to an ineffective communication method leads to failure. PM must adapt for audience.</t>
+  </si>
+  <si>
+    <t>What could have helped ABC Electric increase success chances with the contract?</t>
+  </si>
+  <si>
+    <t>A. Monitor market needs  
+B. Assign PM with domain knowledge  
+C. Tailor stakeholder comms  
+D. Simultaneous geo launches  
+E. Stakeholder brainstorm</t>
+  </si>
+  <si>
+    <t>Stakeholder-aligned communication is key to gaining buy-in and demonstrating business value.</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>A, C, D</t>
+  </si>
+  <si>
+    <t>PMI Mini Exam #1</t>
+  </si>
+  <si>
+    <t>A project manager is developing a project management plan to submit to the sponsor in 2 weeks. The sponsor wants to review early resource estimates. What should the PM do?</t>
+  </si>
+  <si>
+    <t>A. Wait for WBS
+B. Share BES
+C. Re-share SOW
+D. Share RBS</t>
+  </si>
+  <si>
+    <t>RBS outlines resource types, quantities, and costs across project stages—more relevant than BES/WBS/SOW for resource estimation.</t>
+  </si>
+  <si>
+    <t>A PM wants effective communication in a new, large project. What should they do?</t>
+  </si>
+  <si>
+    <t>A. Organize team activities
+B. Share info process
+C. Use clear assessments
+D. Free exchange of ideas</t>
+  </si>
+  <si>
+    <t>Sharing info builds trust—PM must ensure structured sharing, not just informal exchanges or morale-building.</t>
+  </si>
+  <si>
+    <t>The product owner keeps asking about budget during Agile ceremonies. What should the PM have done earlier?</t>
+  </si>
+  <si>
+    <t>A. Use different cost estimates
+B. Use budget reports
+C. Clarify roles in agile
+D. Use fixed-price contract</t>
+  </si>
+  <si>
+    <t>PM should have mentored the product owner on agile roles/ceremonies. Budget isn't the primary concern.</t>
+  </si>
+  <si>
+    <t>What should a PM do with stakeholders who have no interest or influence?</t>
+  </si>
+  <si>
+    <t>A. Closely monitor
+B. Highly encourage
+C. Attentively focus
+D. Visibly harness</t>
+  </si>
+  <si>
+    <t>Low-interest/influence stakeholders require monitoring, not proactive engagement.</t>
+  </si>
+  <si>
+    <t>A customer requested a change; responsible specialist was reassigned. What should the PM do first?</t>
+  </si>
+  <si>
+    <t>A. Request new HR resource
+B. Ask sponsor for resource
+C. Negotiate availability
+D. Tell customer no</t>
+  </si>
+  <si>
+    <t>PM should negotiate availability first—only then escalate to sponsor or HR.</t>
+  </si>
+  <si>
+    <t>Project delay due to late material delivery. What should the PM do next?</t>
+  </si>
+  <si>
+    <t>A. Discuss with team
+B. Add to issue log
+C. Contact procurement
+D. Escalate to sponsor</t>
+  </si>
+  <si>
+    <t>Adding it to the issue log ensures formal tracking and resolution.</t>
+  </si>
+  <si>
+    <t>Fixed-price contract, added scope, more resources added. Which technique is being applied?</t>
+  </si>
+  <si>
+    <t>A. Fast tracking
+B. Crashing
+C. Resource leveling
+D. Lead and lag</t>
+  </si>
+  <si>
+    <t>Crashing adds resources to meet deadlines without changing scope.</t>
+  </si>
+  <si>
+    <t>How can a PM communicate the project announcement and gain commitment?</t>
+  </si>
+  <si>
+    <t>A. Create charter
+B. Kick-off meeting
+C. Comm mgmt plan
+D. Distribute RACI</t>
+  </si>
+  <si>
+    <t>Comm mgmt plan ensures stakeholder info is structured—kickoffs/RACI are tools but not enough.</t>
+  </si>
+  <si>
+    <t>What is the most important part of stakeholder management?</t>
+  </si>
+  <si>
+    <t>A. Avoid challenges
+B. Real-time schedule changes
+C. Equal info sharing
+D. Good relationships</t>
+  </si>
+  <si>
+    <t>Relationships drive success—effective stakeholder engagement is rooted in trust and influence.</t>
+  </si>
+  <si>
+    <t>R&amp;D department planning a new product initiative. How to increase project success?</t>
+  </si>
+  <si>
+    <t>A. Use old templates
+B. Do impact analysis
+C. Plan session on scope/vision
+D. Benchmarking</t>
+  </si>
+  <si>
+    <t>Success starts with clear vision/scope. PM must align stakeholders before planning or analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req'ts &amp; Scope will not be in the Project Charter!! </t>
+  </si>
+  <si>
+    <t>Circumstance</t>
+  </si>
+  <si>
+    <t>Why Affinity Grouping Is Used</t>
+  </si>
+  <si>
+    <t>To organize a long list of raw ideas into logical groups, making it easier to analyze.</t>
+  </si>
+  <si>
+    <t>Helps identify patterns in problems or failures (especially in quality control and process improvement).</t>
+  </si>
+  <si>
+    <t>If you’ve gathered interview responses, survey comments, or stakeholder feedback, grouping similar ideas helps extract key themes.</t>
+  </si>
+  <si>
+    <t>To categorize stakeholders by influence, interest, or attitude for easier strategy development.</t>
+  </si>
+  <si>
+    <t>To cluster similar product or project requirements.</t>
+  </si>
+  <si>
+    <t>Supporting those tools by organizing root causes or contributing factors.</t>
+  </si>
+  <si>
+    <t>under what circumstance will you use affinity grouping?</t>
+  </si>
+  <si>
+    <t>🧠 After brainstorming sessions</t>
+  </si>
+  <si>
+    <t>🔍 During root cause analysis</t>
+  </si>
+  <si>
+    <t>👥 When analyzing qualitative data</t>
+  </si>
+  <si>
+    <t>📈 When conducting a stakeholder analysis</t>
+  </si>
+  <si>
+    <t>📊 During requirements gathering</t>
+  </si>
+  <si>
+    <t>📋 When using tools like cause-and-effect (Ishikawa) or the 5 Whys</t>
+  </si>
+  <si>
+    <t>Stakeholder Register</t>
+  </si>
+  <si>
+    <t>Scope management plan</t>
+  </si>
+  <si>
+    <t>requirements management plan</t>
+  </si>
+  <si>
+    <t>Project Charter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Req'ts" &amp; "Scope" will not be in the Project Charter!! </t>
+  </si>
+  <si>
+    <t>A project manager is reviewing work performance data in preparation for the close project process... What should the project manager do next?</t>
+  </si>
+  <si>
+    <t>A. Allocate the contingency reserve
+B. Update the schedule and perform the work
+C. Issue a change request for review by the change control board (CCB)
+D. Update the watch list in the risk register</t>
+  </si>
+  <si>
+    <t>Since one of the completed deliverables was not formally accepted, it may require a change request for defect repair...</t>
+  </si>
+  <si>
+    <t>The project manager should use a checklist as it is generally used in validating process steps have been implemented.
+The other answer choices are incorrect. Flowcharts can only be used to outline process steps not verify that they have been conducted; histograms reflect frequency distribution and will not verify team members have completed the tasks; and facilitation is the ability to effectively guide a group event to a successful decision, solution, or conclusion.</t>
+  </si>
+  <si>
+    <t>A project has been closed and customer care needs to measure customer satisfaction with the deliverables. What should be done next?</t>
+  </si>
+  <si>
+    <t>Closure meetings are used to confirm deliverables have been accepted, validate if acceptance criteria have been met, formalize contract completion, evaluate stakeholder satisfaction, gather lessons learned, transfer project knowledge and information, and celebrate success. Customer satisfaction can be derived by referring customer feedback documents.</t>
+  </si>
+  <si>
+    <t>The quality management plan defines the standards for the project deliverables and how compliance with the standards can be demonstrated. The scope and requirements documents should not list quality criteria.</t>
+  </si>
+  <si>
+    <t>The product owner should align customer expectations by reviewing and clarifying functional acceptance criteria. This ensures delivery aligns with the definition of done.</t>
+  </si>
+  <si>
+    <t>A project team has not been performing user acceptance tests on a deliverable because the product has been working as expected in other projects. However, after implementation, the product is not operational. What should the project manager do to identify the source of the problem?</t>
+  </si>
+  <si>
+    <t>A. Review the quality metrics document.
+B. Develop a scatter diagram.
+C. Conduct a root cause analysis.
+D. Perform an audit.</t>
+  </si>
+  <si>
+    <t>Root cause analysis identifies the fundamental reason for the problem. The other options (e.g. scatter diagram, quality metrics, audit) don't directly diagnose the underlying cause.</t>
+  </si>
+  <si>
+    <t>A project deliverable does not meet the functional requirements necessary to meet stakeholder needs. As a result, the customer refuses to accept the deliverable. How would defining the quality metrics have helped the project manager avoid this situation?</t>
+  </si>
+  <si>
+    <t>Quality metrics describe a project or product attribute and how to measure it, helping determine customer satisfaction with clear, objective standards. The Test Management Plan uses quality metrics, not defines them. WBS would define tasks, not how to measure quality. A procurement plan is unrelated to quality assessment.</t>
+  </si>
+  <si>
+    <t>A major project deliverable is completed. What should the project manager and team do to confirm that specifications have been met?</t>
+  </si>
+  <si>
+    <t>A. Check the organizational process assets.
+B. Validate the quality audit reports.
+C. Verify the scope.
+D. Perform quality control.</t>
+  </si>
+  <si>
+    <t>Quality control is used to analyze and evaluate the project deliverables against the requirements. Other options (quality audit reports, process assets, or verifying scope) don't directly confirm deliverable specs.</t>
+  </si>
+  <si>
+    <t>A manufacturing company receives customer complaints that a product is defective. A project sponsor has said that these complaints might be outliers. What should the project manager use to investigate the cause and quantity of defects in this product?</t>
+  </si>
+  <si>
+    <t>Histogram displays the number and ranking of defects, allowing analysis of trends and causes. Flowcharts show processes, affinity diagrams organize causes (not quantify), and control charts show process stability rather than frequency of defects.</t>
+  </si>
+  <si>
+    <t>After sponsor approval of a project, the project manager invites the sponsor, selected team members, and other stakeholders to a meeting. The major purpose of the meeting is to define how formal acceptance of the completed project deliverables will be obtained. What document will be developed as the final output of this meeting?</t>
+  </si>
+  <si>
+    <t>A. Change log.
+B. Stakeholder register.
+C. Scope management plan.
+D. Requirements management plan.</t>
+  </si>
+  <si>
+    <t>The scope management plan defines how the scope will be defined, developed, monitored, and validated. The other options either document unrelated info (changes, stakeholders) or relate to requirements, not acceptance.</t>
+  </si>
+  <si>
+    <t>Plan and Manage Quality of Products / deliverables</t>
+  </si>
+  <si>
+    <t>Which of the following is not part of the Validate Release in Transition phase?</t>
+  </si>
+  <si>
+    <t>A. Production deployment testing
+B. Active stakeholder participation
+C. Stakeholder satisfaction survey
+D. Log the deployment</t>
+  </si>
+  <si>
+    <t>Logging the deployment falls under the release into production during the transition. Production deployment testing, active stakeholder participation, and stakeholder satisfaction survey are part of validating a release in transition.</t>
+  </si>
+  <si>
+    <t>A project manager needs to close a project phase. What step should project manager take?</t>
+  </si>
+  <si>
+    <t>A. Ensure deliverables have full buy-in according to decision process established for phase
+B. Compare project deliverables with project charter and request customer sign off
+C. Review high-level strategic and operational assumptions and constraints with stakeholders
+D. Review project management plan to ensure phase objectives have been met</t>
+  </si>
+  <si>
+    <t>When closing a project or phase, the project manager must review the project management plan to confirm all work is complete and objectives have been met.</t>
+  </si>
+  <si>
+    <t>You are the project manager on a project delivered by a Scrum team. Which of the following are the goals of the retrospective event? (Choose 3)</t>
+  </si>
+  <si>
+    <t>A. Identify what is working well and define actions to reinforce them
+B. Identify what is not working and define actions to rectify them
+C. Identify top improvement areas and define actions to implement them
+D. Identify unfinished deliverables and define actions to complete them</t>
+  </si>
+  <si>
+    <t>A, B, C</t>
+  </si>
+  <si>
+    <t>Retrospectives focus on continuous improvement of the Scrum process, not backlog or deliverable management.</t>
+  </si>
+  <si>
+    <t>A project has components that are outsourced and the project manager is in the control phase of the procurement process. What should the project manager focus on doing?</t>
+  </si>
+  <si>
+    <t>A. Finalize the contract and pay the vendors
+B. Develop a procurement plan and identify potential vendors
+C. Issue requests for proposals and select vendors
+D. Evaluate the performance of one of the major project vendors</t>
+  </si>
+  <si>
+    <t>Control Procurements focuses on monitoring vendor performance, contract compliance, and resolving issues.</t>
+  </si>
+  <si>
+    <t>Which of the following is not considered during project/phase closure?</t>
+  </si>
+  <si>
+    <t>A. Team celebration ideas
+B. Critical Success Factors
+C. Fast-tracking
+D. Knowledge transfer</t>
+  </si>
+  <si>
+    <t>Fast-tracking is a schedule compression technique used before closure.</t>
+  </si>
+  <si>
+    <t>A project manager is reviewing project histories, resources, and performance data to apply stored knowledge to a new project. Where is the first place the project manager should look?</t>
+  </si>
+  <si>
+    <t>A. Previously accepted project charters
+B. PMIS system
+C. Quality management tools
+D. Baseline versus actual performance reports</t>
+  </si>
+  <si>
+    <t>PMIS contains consolidated organizational knowledge including histories, lessons learned, and performance data.</t>
+  </si>
+  <si>
+    <t>Project completion will be delayed because an essential component will not be delivered on time. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Consult with stakeholders and revise the project schedule
+B. Review the scope management plan
+C. Check the procurement contract for penalties
+D. Evaluate the impact of the delay before deciding actions</t>
+  </si>
+  <si>
+    <t>The project manager must first understand the impact of the delay before deciding or recommending actions.</t>
+  </si>
+  <si>
+    <t>A project was cancelled during its initiation phase due to lack of adequate resources. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Inform all team members according to the communications plan
+B. Refer to the company’s project closure guidelines
+C. Perform a risk analysis to determine impact
+D. Reassign all resources and reallocate budget</t>
+  </si>
+  <si>
+    <t>Organizational project closure guidelines define required actions when a project is terminated, even during initiation.</t>
+  </si>
+  <si>
+    <t>A project manager needs to close out a project and does not have time to update the lessons learned register. What could be a consequence of this failure to act?</t>
+  </si>
+  <si>
+    <t>A. Work performance data would be incomplete
+B. Opportunities to prevent similar problems in future projects could be missed
+C. The project management plan would be misleading
+D. Stakeholders would refuse future engagement</t>
+  </si>
+  <si>
+    <t>Lessons learned enable organizational learning; failing to capture them can allow problems to repeat.</t>
+  </si>
+  <si>
+    <t>Which of the following is performed in project/phase closure?</t>
+  </si>
+  <si>
+    <t>A. Schedule and conduct a project kickoff meeting
+B. Schedule and conduct a lessons learned meeting
+C. Schedule and conduct a change control meeting
+D. Schedule and conduct a project status meeting</t>
+  </si>
+  <si>
+    <t>Lessons learned meetings are conducted during project or phase closure to capture knowledge for future projects.</t>
+  </si>
+  <si>
+    <t>A project to develop a new product is nearing its closing phase and has received formal acceptance. What should the project manager do next?</t>
+  </si>
+  <si>
+    <t>A. Review all contracts with the project team and suppliers
+B. Disband the project team
+C. Ensure customer care teams have training
+D. Document lessons learned</t>
+  </si>
+  <si>
+    <t>After formal acceptance, the project manager should verify all contractual obligations are satisfied before final closure activities.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Plan and Manage Project / Phase Closure or Transition</t>
+  </si>
+  <si>
+    <t>Logging the deployment falls under release into production, not validate release.</t>
+  </si>
+  <si>
+    <t>A. Ensure deliverables have full buy-in
+B. Compare deliverables with charter
+C. Review assumptions
+D. Review PM plan to ensure objectives met</t>
+  </si>
+  <si>
+    <t>Ensures all phase work is complete and objectives are met.</t>
+  </si>
+  <si>
+    <t>Goals of the Scrum retrospective event (Choose 3)?</t>
+  </si>
+  <si>
+    <t>A. Identify what works
+B. Identify what doesn’t work
+C. Identify improvement areas
+D. Identify unfinished deliverables</t>
+  </si>
+  <si>
+    <t>Retrospectives focus on process improvement, not backlog management.</t>
+  </si>
+  <si>
+    <t>Outsourced components – PM in control procurement phase. Focus on?</t>
+  </si>
+  <si>
+    <t>A. Finalize contract
+B. Develop procurement plan
+C. Select vendors
+D. Evaluate vendor performance</t>
+  </si>
+  <si>
+    <t>Control procurements focuses on monitoring vendor performance.</t>
+  </si>
+  <si>
+    <t>What is not considered during project/phase closure?</t>
+  </si>
+  <si>
+    <t>A. Team celebration
+B. Critical success factors
+C. Fast-tracking
+D. Knowledge transfer</t>
+  </si>
+  <si>
+    <t>Fast-tracking is used during execution, not closure.</t>
+  </si>
+  <si>
+    <t>Where should PM first look to apply stored knowledge to a new project?</t>
+  </si>
+  <si>
+    <t>A. Accepted charters
+B. PMIS
+C. Quality tools
+D. Performance reports</t>
+  </si>
+  <si>
+    <t>PMIS stores organizational project knowledge.</t>
+  </si>
+  <si>
+    <t>Project delayed due to late component delivery. What should PM do?</t>
+  </si>
+  <si>
+    <t>A. Revise schedule
+B. Review scope plan
+C. Check penalties
+D. Evaluate impact</t>
+  </si>
+  <si>
+    <t>Impact must be understood before corrective action.</t>
+  </si>
+  <si>
+    <t>Project cancelled during initiation due to lack of resources. What should PM do?</t>
+  </si>
+  <si>
+    <t>A. Inform team
+B. Refer to closure guidelines
+C. Perform risk analysis
+D. Reassign resources</t>
+  </si>
+  <si>
+    <t>Organizational procedures define termination steps.</t>
+  </si>
+  <si>
+    <t>Consequence of not updating lessons learned register?</t>
+  </si>
+  <si>
+    <t>A. Incomplete performance data
+B. Missed improvement opportunities
+C. Inaccurate PM plan
+D. Stakeholders disengage</t>
+  </si>
+  <si>
+    <t>Lessons learned support continuous improvement.</t>
+  </si>
+  <si>
+    <t>What is performed in project/phase closure?</t>
+  </si>
+  <si>
+    <t>A. Kickoff meeting
+B. Lessons learned meeting
+C. Change control meeting
+D. Status meeting</t>
+  </si>
+  <si>
+    <t>Lessons learned are captured during closure.</t>
+  </si>
+  <si>
+    <t>After formal acceptance, what should PM do next?</t>
+  </si>
+  <si>
+    <t>A. Review contracts
+B. Disband team
+C. Train customer care
+D. Document lessons learned</t>
+  </si>
+  <si>
+    <t>Contract closure precedes team release.</t>
+  </si>
+  <si>
+    <t>Mentor and Collaborate with Stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure you look at exactly what they are asking. </t>
+  </si>
+  <si>
+    <t>Manage Project Issues</t>
+  </si>
+  <si>
+    <t>A key stakeholder refuses to sign off on a product because it does not meet the expectations outlined in the project scope. What should the project manager have done to avoid this situation?</t>
+  </si>
+  <si>
+    <t>A. Solicited stakeholder feedback throughout the life cycle of the project.
+B. Conducted risk assessments based on the stakeholder's expectations.
+C. Implemented conflict management techniques during sign-off.
+D. Involved the key stakeholder during the testing phase.</t>
+  </si>
+  <si>
+    <t>Continuous stakeholder engagement ensures expectations are aligned throughout the project and prevents surprises at sign-off.</t>
+  </si>
+  <si>
+    <t>A new project manager joins a project during a critical milestone and must decide how much detail to provide stakeholders. Which document should be referred to?</t>
+  </si>
+  <si>
+    <t>A. Communications management plan
+B. Stakeholder register
+C. Stakeholder engagement plan
+D. Project management plan</t>
+  </si>
+  <si>
+    <t>The stakeholder engagement plan defines communication strategies tailored to stakeholder interest and influence.</t>
+  </si>
+  <si>
+    <t>An intern replaces a critical resource midway through a sprint, causing delays. What should the project manager have done to avoid this scenario?</t>
+  </si>
+  <si>
+    <t>A. Convince the critical resource to stay.
+B. Negotiate additional time.
+C. Request an experienced replacement.
+D. Allocate more mentoring time.</t>
+  </si>
+  <si>
+    <t>An experienced replacement mitigates skill-gap risk. Mentoring and schedule changes address symptoms, not root causes.</t>
+  </si>
+  <si>
+    <t>A project stakeholder has been missing facilitation workshops and delegating tasks. What should the project manager do to engage this stakeholder?</t>
+  </si>
+  <si>
+    <t>A. Review roles and responsibilities in the project charter.
+B. Explain task differences among team members.
+C. Ask the program manager to enforce attendance.
+D. Pair the stakeholder with a mentor.</t>
+  </si>
+  <si>
+    <t>Clarifying roles and responsibilities reinforces accountability and improves engagement without escalation.</t>
+  </si>
+  <si>
+    <t>Two local parties impacted by equipment commissioning ask that the project be stopped because they were not involved in approval. How would a stakeholder engagement plan have helped avoid this situation?</t>
+  </si>
+  <si>
+    <t>A. Use conflict management techniques to gain approval.
+B. Ensure their sign-off on the project charter.
+C. Negotiate based on expectations.
+D. Identify them as stakeholders and include them in communications.</t>
+  </si>
+  <si>
+    <t>Proper stakeholder identification ensures all affected parties are included in relevant communications.</t>
+  </si>
+  <si>
+    <t>A stakeholder with high interest but little authority is identified. How should the project manager handle this stakeholder?</t>
+  </si>
+  <si>
+    <t>A. Provide information as needed.
+B. Work closely to address concerns.
+C. Keep track and respond to needs.
+D. Include in standard updates and keep satisfied.</t>
+  </si>
+  <si>
+    <t>Stakeholders with low power but high interest should be kept informed with relevant information.</t>
+  </si>
+  <si>
+    <t>A project manager is developing a project charter, but a key stakeholder is not providing expected project benefits. Why should the project manager meet with the project sponsor?</t>
+  </si>
+  <si>
+    <t>A. Sponsor manages tacit and explicit knowledge.
+B. Sponsor can address internal political and strategic issues.
+C. Sponsor can request CCB changes.
+D. Sponsor manages stakeholder discipline.</t>
+  </si>
+  <si>
+    <t>The sponsor can intervene at a strategic and political level to facilitate stakeholder contribution when barriers exist.</t>
+  </si>
+  <si>
+    <t>A project manager identifies a stakeholder with little authority but clear interest. How should this stakeholder be managed?</t>
+  </si>
+  <si>
+    <t>A. Keep satisfied.
+B. Manage closely.
+C. Monitor.
+D. Keep informed.</t>
+  </si>
+  <si>
+    <t>Low-power, high-interest stakeholders should be kept informed as their engagement may evolve.</t>
+  </si>
+  <si>
+    <t>A project manager wants to improve team dynamics and knowledge sharing during a megaproject. What should they do?</t>
+  </si>
+  <si>
+    <t>A. Conduct knowledge-sharing presentations.
+B. Push junior members with minimal support.
+C. Implement a formal mentoring program.
+D. Facilitate open team discussions.</t>
+  </si>
+  <si>
+    <t>Open discussions promote collaboration, trust, and shared learning while addressing team and individual challenges.</t>
+  </si>
+  <si>
+    <t>Two teams are working simultaneously on interdependent parts of a complex project. What should the project manager do first to manage potential conflicts when outputs are combined?</t>
+  </si>
+  <si>
+    <t>A. Set up weekly meetings between the teams to monitor each other's work.
+B. Prioritize conflict resolution for the critical path work.
+C. Review lessons learned to anticipate conflicts.
+D. Engage stakeholders to support conflict resolution.</t>
+  </si>
+  <si>
+    <t>Maintaining open communication through regular coordination meetings prevents suboptimization and identifies issues early before integration.</t>
+  </si>
+  <si>
+    <t>Plan and Manage Scope</t>
+  </si>
+  <si>
+    <t>After a review meeting, a scrum master repeats the importance of quality, focusing especially on the Cost of Change. Which of the following is the scrum master not referring to?</t>
+  </si>
+  <si>
+    <t>A. Shorten the defect cycle time
+B. Fix escaped defects
+C. Support more features
+D. Reduce the technical debt</t>
+  </si>
+  <si>
+    <t>The scrum master is referring to all the listed options except supporting more features. Cost of Quality focuses on preventing, identifying, and fixing defects rather than expanding features.</t>
+  </si>
+  <si>
+    <t>During a project review, the construction manager reports that the concrete production rate has changed over the last three months. They would like to have an idea of what to expect in the next three months. What analysis should be conducted?</t>
+  </si>
+  <si>
+    <t>A. Earned value analysis
+B. Critical path analysis
+C. Trend analysis
+D. Cost-benefit analysis</t>
+  </si>
+  <si>
+    <t>Trend analysis forecasts future performance using historical data and is appropriate for predicting future production rates.</t>
+  </si>
+  <si>
+    <t>A project manager is managing an agile project with many risks identified in the risk register. During the iteration, an identified risk occurs which halts project development. What should the project manager do next?</t>
+  </si>
+  <si>
+    <t>A. Raise the frequency of communications and leverage stakeholders to assist in resolving issues
+B. Assign responsibility for the communication management plan to a senior team member
+C. Invite stakeholders to the next retrospective and inform them of the issue
+D. Delay development to the next sprint and work on backlog items</t>
+  </si>
+  <si>
+    <t>When work is blocked, the project manager must act immediately by increasing communication and engaging stakeholders. Waiting or changing sprint scope is not appropriate.</t>
+  </si>
+  <si>
+    <t>A. Raise the frequency of communications and leverage stakeholders to assist in resolving issues
+B. Assign responsibility for the communication management plan to a senior team member
+C. Invite the stakeholders to the next retrospective meeting and inform them of the issue
+D. Delay development of the critical aspect to the next sprint and work on items currently in the backlog</t>
+  </si>
+  <si>
+    <t>Effective issue management requires immediate escalation and stakeholder involvement rather than waiting for ceremonies or altering sprint commitments.</t>
+  </si>
+  <si>
+    <t>A key project team member is leaving the organization at the halfway point of the project. What should the project manager do first?</t>
+  </si>
+  <si>
+    <t>A. Meet with remaining team members to reassign workloads
+B. Work with the functional manager to find a replacement
+C. Evaluate the impact of the loss of the team member on the project
+D. Reassess the resource roles and team composition</t>
+  </si>
+  <si>
+    <t>The project manager must first assess the impact of the team member’s departure before deciding on reassignment, replacement, or team restructuring.</t>
+  </si>
+  <si>
+    <t>During an agile retrospective session, several team members mention they were confused about the iteration’s progress. What should the project manager do to avoid this confusion?</t>
+  </si>
+  <si>
+    <t>A. Coach the team to review the iteration board
+B. Prepare a daily project status report and share it with the team
+C. Ask the team to refer to the iteration backlog report
+D. Address the issue at the next retrospective session</t>
+  </si>
+  <si>
+    <t>In agile, transparency is achieved through visible information radiators such as the iteration board. Coaching the team to use it supports self-management and shared understanding of progress.</t>
+  </si>
+  <si>
+    <t>C is about preventing the problem.
+B is about reacting after the problem already exists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should you do now? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should you have done? </t>
+  </si>
+  <si>
+    <t>--&gt; prior work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--&gt; Now what? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for veribage in the question they are asking: </t>
+  </si>
+  <si>
+    <t>Core PMI rule: Detailed planning cannot occur until the project charter scope is approved.</t>
+  </si>
+  <si>
+    <t>impediment</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Obstruction in doing something</t>
+  </si>
+  <si>
+    <t>address and remove impediments, obstacles, and blocker for the team</t>
+  </si>
+  <si>
+    <t>During acceptance testing of a deliverable, some senior stakeholders complain that a feature essential to their department was not included. What should the project manager have done to prevent this?</t>
+  </si>
+  <si>
+    <t>A. Consulted lessons learned from similar projects to adapt processes
+B. Prepared a change management plan and logged changes during project implementation
+C. Analyzed the project charter and developed a scope management plan
+D. Prepared a prototype and conducted a product demo with stakeholders</t>
+  </si>
+  <si>
+    <t>The issue resulted from inadequate scope definition. A scope management plan ensures requirements are defined, validated, and controlled early, preventing essential features from being missed.</t>
+  </si>
+  <si>
+    <t>The sponsor of a hybrid project wants to see a more detailed breakdown in the project charter, not just the milestones. The project manager informs the sponsor that preparing the breakdown will require two more iterations. Why is this additional time required?</t>
+  </si>
+  <si>
+    <t>A. The milestone schedule was prepared based on the project manager's experience only.
+B. The steering committee has to review and approve the schedule first.
+C. Scope in the charter should be approved before detail planning with the team can occur.
+D. Schedule details are only planned one iteration in advance in a hybrid approach.</t>
+  </si>
+  <si>
+    <t>In hybrid projects, charter-level scope must be approved before detailed planning can occur. Additional iterations are required for progressive elaboration after scope approval.</t>
+  </si>
+  <si>
+    <t>A new project manager is assigned during execution and discovers some deliverables were overlooked in the WBS. The PM must ensure no work is left out and no extra work is performed. What should the PM do next?</t>
+  </si>
+  <si>
+    <t>A. Add the work to the WBS and recalculate the project metrics.
+B. Ask stakeholders if the deliverables need to be added.
+C. Roll up lower-level deliverables into existing WBS elements.
+D. Initiate a change control request with the PMO.</t>
+  </si>
+  <si>
+    <t>The WBS must reflect 100% of the approved scope. Since the scope was already agreed upon, the PM should correct the WBS and update metrics. This is a planning correction, not a scope change.</t>
+  </si>
+  <si>
+    <t>A project manager is working on a new software development project. The customer provided a list of requirements but did not differentiate technical requirements from customer requirements. Which requirement should be classified as a customer requirement?</t>
+  </si>
+  <si>
+    <t>A. The software should be able to process 1000 transactions per second.
+B. The software should use a secure database encryption algorithm.
+C. The software should be able to run on a variety of operating systems.
+D. The software should be easy to use and navigate.</t>
+  </si>
+  <si>
+    <t>Customer requirements are high-level, non-technical statements describing what the customer wants. “Easy to use and navigate” reflects a user expectation rather than a specific, testable technical requirement.</t>
+  </si>
+  <si>
+    <t>Common problems during project scope definition are internal and external dependencies. Which of the following is a dependency that can add complexity to the project?</t>
+  </si>
+  <si>
+    <t>A. Non-dependency between a project and the overall program.
+B. Underfunded projects that are dependent upon external resources.
+C. Non-dependency of the project upon an environment in which it is designed to be functional.
+D. Over-staffed project with extra capacity.</t>
+  </si>
+  <si>
+    <t>External dependencies, such as reliance on outside resources combined with insufficient funding, increase uncertainty and complexity during scope definition. The other options describe non-dependencies or risk mitigation situations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can always point out the functional manager is wrong, except for the stakeholder or product owner. </t>
+  </si>
+  <si>
+    <t>Plan and Manage Budget and Resource</t>
+  </si>
+  <si>
+    <t>A project manager working on an agile project discovers that the allocated budget and resources are insufficient to cover the estimated total cost. The PMO recommended the development of a requirements prioritization model. What should the project manager take into consideration in the model?</t>
+  </si>
+  <si>
+    <t>A. Cost, associated risk, and company culture
+B. Associated risk and company culture
+C. Cost and associated risk
+D. Associated cost impediments</t>
+  </si>
+  <si>
+    <t>Requirements should be prioritized based on cost and associated risk. Company culture does not vary by requirement, and cost impediments are not yet known.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>A project integrates with several systems developed by various vendors and one of these vendors has gone out of business. What should the project manager do first?</t>
+  </si>
+  <si>
+    <t>A. Meet with this vendor to identify a replacement.
+B. Review the risk register and update the issue log.
+C. Calculate the delay and notify the project sponsor of the new timeline.
+D. Negotiate with another vendor to produce the deliverable.</t>
+  </si>
+  <si>
+    <t>The missing vendor is now an issue. The project manager should first consult the risk register for response strategies and log the issue before taking further action.</t>
+  </si>
+  <si>
+    <t>The project manager for a complex project discovers that a certain team member has missed several targets. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Determine if the team member has been assigned to a concurrent project.
+B. Impose a penalty for each day the team member misses a target.
+C. Ask the team member’s functional manager to address the issue.
+D. Discuss the issue with the team member and offer any needed assistance.</t>
+  </si>
+  <si>
+    <t>The project manager should directly engage the team member to understand root causes and provide support. Escalation or penalties without understanding are ineffective.</t>
+  </si>
+  <si>
+    <t>Easy–Medium</t>
+  </si>
+  <si>
+    <t>A project manager is using an agile delivery approach for a project. The team members and business stakeholders are unfamiliar with formal requirements prioritization methods and are inexperienced with agile delivery approaches. What prioritization technique should the project manager use?</t>
+  </si>
+  <si>
+    <t>A. Get the opinion of all team members and business stakeholders.
+B. Use a mathematical model defined by the team members and stakeholders.
+C. Collect the needs of the team members and business stakeholders.
+D. Reach a common understanding with the team members and stakeholders.</t>
+  </si>
+  <si>
+    <t>Objective models such as Weighted Shortest Job First (WSJF) help inexperienced teams prioritize based on value and risk rather than subjective opinion.</t>
+  </si>
+  <si>
+    <t>Medium–Hard</t>
+  </si>
+  <si>
+    <t>A functional manager has been making changes to a project outside of the established management plan and went directly to the project sponsor to request another change. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Determine if the change control board (CCB) needs to review the changes.
+B. Tell the functional manager that all changes must go through the change control process.
+C. Modify the project management plan to allow flexibility in the change control procedures.
+D. Meet with the project sponsor to discuss details about the requested changes.</t>
+  </si>
+  <si>
+    <t>The project manager must enforce adherence to the agreed change control process. All changes must be formally submitted and reviewed.</t>
+  </si>
+  <si>
+    <t>The change control board (CCB) has approved several change requests, but implementation is taking longer than expected. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Revise the change control system to allow only critical changes.
+B. Acquire additional resources to meet milestones.
+C. Perform a detailed risk analysis of the delay.
+D. Monitor implementation of the changes to ensure procedures are being followed.</t>
+  </si>
+  <si>
+    <t>After approval, the project manager’s role is to monitor implementation and ensure change management procedures are properly followed.</t>
+  </si>
+  <si>
+    <t>A project manager is working on a hybrid project. Team performance is suffering because a stakeholder frequently interrupts the team for status updates and attempts to implement changes directly. How can the project manager improve project performance?</t>
+  </si>
+  <si>
+    <t>A. Identify the stakeholder as a risk and work on mitigation.
+B. Have the team direct all requests from the stakeholder to the project manager.
+C. Work with the PMO to remove the stakeholder from the project.
+D. Meet with the project sponsor to address and remove impediments and obstacles for the team.</t>
+  </si>
+  <si>
+    <t>In agile and hybrid environments, the project manager acts as a servant leader by removing impediments. Working with the sponsor helps address stakeholder interference and restore team focus.</t>
+  </si>
+  <si>
+    <t>An organization decides to implement the Scrum delivery framework. The project manager is using an impediment board with the Scrum team to identify and raise impediments. What should happen after the impediments are recorded?</t>
+  </si>
+  <si>
+    <t>A. Address the highest priority impediments so the team can reach the sprint objective.
+B. Prioritize impediments based on their levels of importance and in relation to those already on the log.
+C. Publish and post the impediments log and make it visible to everyone.
+D. Communicate that the impediment is removed and update the log.</t>
+  </si>
+  <si>
+    <t>After impediments are identified and recorded—typically during the daily standup—they should be prioritized relative to existing impediments so the team can focus on removing the most critical blockers first.</t>
+  </si>
+  <si>
+    <t>EVM</t>
+  </si>
+  <si>
+    <t>CPI?</t>
+  </si>
+  <si>
+    <t>CPI = EV / AC</t>
+  </si>
+  <si>
+    <t>Address and Remove Impediments, Obstacles, and Blockers for the Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really Hard ones: </t>
+  </si>
+  <si>
+    <t>Execute Project with Urgency Required to deliver business value</t>
+  </si>
+  <si>
+    <t>The project team is defining certifications, technical competencies, and soft competencies for people, machinery, advance visualization software, workstations for physicians, and other supplies for a complex project that must be implemented in 5 months. If the project team uses a resource breakdown structure (RBS), how will it help to organize and visualize the resources? (Choose three.)</t>
+  </si>
+  <si>
+    <t>A. By hierarchy
+B. By source
+C. By category
+D. By type
+E. By last name</t>
+  </si>
+  <si>
+    <t>An RBS is a hierarchical representation of resources, organized by category and by type, helping visualize labor, equipment, materials, and skills.</t>
+  </si>
+  <si>
+    <t>A project manager learns that a functional manager is assigning a two-week task in another project to a team member. Loss of this resource for two weeks will jeopardize the project schedule. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Review the resource management plan
+B. Submit a change request to the CCB
+C. Meet with the project sponsor
+D. Assign another team member</t>
+  </si>
+  <si>
+    <t>The resource management plan guides how resources are negotiated, allocated, and released before escalation or changes.</t>
+  </si>
+  <si>
+    <t>A new project manager has been assigned to a global project team. The team must create an RBS, but the resource management plan states it should only be created at the beginning of the project. What should the project manager do first?</t>
+  </si>
+  <si>
+    <t>A. Update the resource management plan
+B. Update the project management plan
+C. Update the RBS
+D. Update the WBS</t>
+  </si>
+  <si>
+    <t>The resource management plan must be updated first, as it governs creation and maintenance of the RBS.</t>
+  </si>
+  <si>
+    <t>A project is slightly ahead of schedule, but a critical deliverable will not be available on time. If the project manager crashes the delayed deliverable, what is the impact?</t>
+  </si>
+  <si>
+    <t>A. Warranty issues would result
+B. Costs and risks would decrease
+C. Costs and risks would increase
+D. Rework would be required</t>
+  </si>
+  <si>
+    <t>Crashing shortens schedule by adding resources, which increases both costs and risks.</t>
+  </si>
+  <si>
+    <t>A project manager identifies conflicts among local and virtual team members’ understanding of deliverables. How can the project manager resolve these conflicts?</t>
+  </si>
+  <si>
+    <t>A. Ask the sponsor to meet with the team
+B. Collaborate with team members to address conflicts
+C. Host a mediation session
+D. Emphasize agreement areas</t>
+  </si>
+  <si>
+    <t>Collaboration uses interpersonal and team skills to address root causes and reach consensus.</t>
+  </si>
+  <si>
+    <t>A project has a baseline schedule of 180 days and a budget of US$250,000. After 21 days, US$60,000 has been spent and EV is US$75,000. What is the CPI?</t>
+  </si>
+  <si>
+    <t>A. 0.8
+B. 0.75
+C. 1.25
+D. 1.02</t>
+  </si>
+  <si>
+    <t>CPI = EV / AC = 75,000 / 60,000 = 1.25, indicating cost efficiency.</t>
+  </si>
+  <si>
+    <t>A project is delayed due to resource availability, putting the project budget at risk. Which document should the project manager use to review and update resources?</t>
+  </si>
+  <si>
+    <t>A. Requirements Traceability Matrix
+B. Work Breakdown Structure
+C. Resource Breakdown Structure
+D. Responsibility Assignment Matrix</t>
+  </si>
+  <si>
+    <t>The Resource Breakdown Structure (RBS) is a hierarchical view of resources by category and type and should be updated throughout the project to reflect changing resource needs.</t>
+  </si>
+  <si>
+    <t>Manage Conflict</t>
+  </si>
+  <si>
+    <t>During the project planning phase, the stakeholders neglected to document an essential system feature. The client realizes the oversight during an initial review of the deliverables. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Review the procurement management plan to determine if the missed feature can be added to the final deliverables.
+B. Determine what effect overlooking the feature will cause and submit a change request to the change control board (CCB).
+C. Ask the project sponsor to authorize a price discount for the client.
+D. Work with the customer to agree on a new price to compensate for the omission.</t>
+  </si>
+  <si>
+    <t>The missing feature represents a scope gap that must be evaluated and processed through formal change control via the CCB.</t>
+  </si>
+  <si>
+    <t>The project manager must assess the impact of the omission and follow the agreed-upon change management process.</t>
+  </si>
+  <si>
+    <t>A customer representative asks the project manager for a new product feature. Which document should the project manager consult?</t>
+  </si>
+  <si>
+    <t>A. Scope management plan
+B. Change management plan
+C. RACI matrix
+D. Requirements traceability matrix</t>
+  </si>
+  <si>
+    <t>New features are change requests, which are governed by the change management plan.</t>
+  </si>
+  <si>
+    <t>A project manager is working on a software development project. The team cannot agree on feature priorities, and a stakeholder is concerned about value delivery. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Meet with the team to develop a plan to prioritize features based on value.
+B. Request a checklist of features from the stakeholder.
+C. Mandate a prioritization schema.
+D. Perform quality inspections.</t>
+  </si>
+  <si>
+    <t>Collaborating with the team ensures buy-in and alignment with value delivery.</t>
+  </si>
+  <si>
+    <t>During development of a project management plan, an essential component was omitted and a workaround failed quality review. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Design a revised workaround prototype.
+B. Review the requirements traceability matrix.
+C. Submit a change request through integrated change control.
+D. Perform qualitative risk analysis only.</t>
+  </si>
+  <si>
+    <t>A formal change request is required so impacts can be analyzed and approved.</t>
+  </si>
+  <si>
+    <t>In the implementation phase, a team lead will be leaving the organization and a replacement has been suggested. What is the first action the project manager should take?</t>
+  </si>
+  <si>
+    <t>A. Determine the competence levels of the new resource.
+B. Review the project baselines to assess the impact of the change.
+C. Document the change per the change management plan.
+D. Update the communications management plan.</t>
+  </si>
+  <si>
+    <t>Impact analysis against baselines must occur before taking further action.</t>
+  </si>
+  <si>
+    <t>A project manager is leading a business transformation project during financial challenges with skeptical stakeholders. What should be done to demonstrate urgency and benefits?</t>
+  </si>
+  <si>
+    <t>A. Create a communication plan.
+B. Delegate tasks and resources.
+C. Hold regular meetings.
+D. Develop a business case aligned with company goals.</t>
+  </si>
+  <si>
+    <t>A business case quantifies benefits, ROI, and strategic alignment, which is critical for buy-in.</t>
+  </si>
+  <si>
+    <t>A project manager notices employees fear layoffs due to a business transformation project, even though it is untrue. Which groups should be contacted to address this concern and ensure project success? (Choose 3)</t>
+  </si>
+  <si>
+    <t>A. Human resources department
+B. Change manager
+C. Functional managers for performance reviews
+D. Functional managers to help explain the change
+E. Project sponsor for executive reinforcement</t>
+  </si>
+  <si>
+    <t>B, D, E</t>
+  </si>
+  <si>
+    <t>Correcting messaging, trusted functional managers, and executive reinforcement reduce resistance and misinformation.</t>
+  </si>
+  <si>
+    <t>A project manager discovers an unexpected market shift during implementation that significantly reduces demand and sales. What should the project manager do first?</t>
+  </si>
+  <si>
+    <t>A. Identify and analyze risks associated with the market shift and develop response plans.
+B. Use forecasting formulas to estimate the impact.
+C. Increase contingency reserves.
+D. Use EVM to calculate EAC.</t>
+  </si>
+  <si>
+    <t>Risk identification and analysis must precede forecasting or reserve adjustments.</t>
+  </si>
+  <si>
+    <t>A company is developing a breakthrough product in a highly competitive and rapidly evolving market where the definition of done (DoD) may shift. What should the project manager do to ensure successful delivery of value?</t>
+  </si>
+  <si>
+    <t>A. Implement robust project tracking and reporting procedures.
+B. Expand the project timeline and budget.
+C. Allocate additional resources to expedite development.
+D. Restrict project scope and focus on deadlines.</t>
+  </si>
+  <si>
+    <t>Strong tracking and reporting enable rapid adaptation when completion criteria are moving targets.</t>
+  </si>
+  <si>
+    <t>A key stakeholder requests new features during the implementation phase and insists they will add value. What should the project manager do first?</t>
+  </si>
+  <si>
+    <t>A. Meet with the project sponsor to discuss benefits.
+B. Review the stakeholder engagement plan.
+C. Assess and review how the changes will impact the project budget and schedule.
+D. Implement the change and document lessons learned.</t>
+  </si>
+  <si>
+    <t>Proposed features are change requests; the first step is impact assessment before approval or implementation.</t>
+  </si>
+  <si>
+    <t>A project manager is managing a technology project in the implementation phase. A key stakeholder requests changes, but the stakeholder and team disagree on the need and approach. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Meet with the stakeholder and team members separately to understand their concerns.
+B. Conduct a risk assessment to determine the impact.
+C. Present pros and cons of the changes.
+D. Make the changes without consultation.</t>
+  </si>
+  <si>
+    <t>Understanding each party’s concerns first allows reconciliation and collaborative resolution.</t>
+  </si>
+  <si>
+    <t>A project manager is assigned to a complex IT project expected to deliver significant benefits, but there is no dedicated data scientist or BI specialist. What is the most appropriate approach to enable benefits-related data capture and reporting?</t>
+  </si>
+  <si>
+    <t>A. Recruit an external consultant to supervise data capture and reporting.
+B. Implement a single data collection and analysis system for all stakeholders.
+C. Collaborate with the team to define KPIs and data collection methods.
+D. Use a variety of data collection tools for different stakeholders.</t>
+  </si>
+  <si>
+    <t>Collaborating with the team to define KPIs and data collection methods ensures alignment with project goals, shared understanding, and effective benefits realization without unnecessary cost or complexity.</t>
+  </si>
+  <si>
+    <t>Promote Team Performance Through the Application of Emotional Intelligence</t>
+  </si>
+  <si>
+    <t>Plan and Manage Quality of Products/deliverables</t>
+  </si>
+  <si>
+    <t>Plan and Manage Project/phase Closure or Transitions</t>
+  </si>
+  <si>
+    <t>Mentor and Collaborate With Stakeholders</t>
+  </si>
+  <si>
+    <t>Plan and Manage Budget and Resources</t>
+  </si>
+  <si>
+    <t>Execute Project With the Urgency Required to Deliver Business Value</t>
+  </si>
+  <si>
+    <t>Engage Stakeholders and Build Shared Understanding</t>
+  </si>
+  <si>
+    <t>Evaluate and Deliver Project Benefits and Value</t>
+  </si>
+  <si>
+    <t>Manage Project Artifacts</t>
+  </si>
+  <si>
+    <t>Support Team Performance by Providing Adequate Training</t>
+  </si>
+  <si>
+    <t>Plan and Manage Schedule</t>
+  </si>
+  <si>
+    <t>Evaluate and Address External Business Environment Changes for Impact on Scope</t>
+  </si>
+  <si>
+    <t>Define Team Ground Rules</t>
+  </si>
+  <si>
+    <t>Build and Lead a Team</t>
+  </si>
+  <si>
+    <t>Integrate Project Planning Activities</t>
+  </si>
+  <si>
+    <t>Empower Team Members and Stakeholders</t>
+  </si>
+  <si>
+    <t>Plan and Manage Project Compliance</t>
+  </si>
+  <si>
+    <t>Support Organizational Change</t>
+  </si>
+  <si>
+    <t>Negotiate Project Agreements</t>
+  </si>
+  <si>
+    <t>Determine Appropriate Project Methodology/methods and Practices</t>
+  </si>
+  <si>
+    <t>Plan and Manage Procurement</t>
+  </si>
+  <si>
+    <t>Engage and Support Virtual Teams</t>
+  </si>
+  <si>
+    <t>Manage communications</t>
+  </si>
+  <si>
+    <t>Ensure Knowledge Transfer for Project Continuity</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -2239,11 +3670,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2280,8 +3725,52 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7"/>
+      <color rgb="FF4F17A8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2291,6 +3780,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -2303,35 +3802,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{E1208F1A-016B-4B60-9C43-D432B44EE57F}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{7118966E-D340-4D9E-8D7E-C5AACAAD24AC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5799,14 +7349,341 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AB85DB-C902-49CE-948B-BDA0157E2AD0}">
+  <dimension ref="B2:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>760</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>784</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>846</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{5B69F0F6-7913-4C68-A9FE-C05944BE8E61}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{9CD66226-26E0-40B8-AFBD-9AF5CD54D844}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{28D0096D-4D3F-4A83-8A23-C7350DC1FCCB}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{F1F67769-5C8D-4123-9BD9-A1959DA758F4}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{05C3B0C3-21D2-4039-954F-047498C31388}"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{567EFF46-86F6-48E8-A4F0-5F795B32A0FB}"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{8158D8B6-1421-4BAA-83F1-14B81DEF94BE}"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{6D09626A-2C7A-47E5-A36C-74F37E0456AC}"/>
+    <hyperlink ref="C11" r:id="rId9" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{AB542FCB-FB78-47E9-AD02-0342BD5B1FC7}"/>
+    <hyperlink ref="C12" r:id="rId10" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{448C6EAA-0319-4B83-840E-0F0ABD45DB28}"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{CB3A5436-5ADE-4404-BAFC-643F82F2E58D}"/>
+    <hyperlink ref="C14" r:id="rId12" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{2FF2494B-1206-4764-B493-EDFD0B29FEC2}"/>
+    <hyperlink ref="C15" r:id="rId13" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{241BD7A5-FA72-45D1-B1BA-B1942C20329A}"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{A030BC0E-AE29-4348-A104-5EAD578BDE1B}"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{BE449ED9-288C-43A6-A185-B9CB0D50C17F}"/>
+    <hyperlink ref="C18" r:id="rId16" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{16CDBC79-8966-4DB3-9599-CA860E7B6C88}"/>
+    <hyperlink ref="C19" r:id="rId17" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{E3BFCA8D-9572-4642-A048-5406F7D31F1D}"/>
+    <hyperlink ref="C20" r:id="rId18" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{41C7BE8D-A77E-4126-AE60-6D5F507C2D46}"/>
+    <hyperlink ref="C21" r:id="rId19" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{38D42ECC-5398-48E4-9F15-9C340A918D44}"/>
+    <hyperlink ref="C22" r:id="rId20" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{8E06FFCA-BA76-49BC-8F3C-F196794428D0}"/>
+    <hyperlink ref="C23" r:id="rId21" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{386C35CF-4423-457B-9DCE-B12CF350CA12}"/>
+    <hyperlink ref="C24" r:id="rId22" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{7F4F4C51-9F35-4C59-B549-8E89D1D9D065}"/>
+    <hyperlink ref="C25" r:id="rId23" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{C4FD76E0-12D2-4BB3-9377-A8823547B6F5}"/>
+    <hyperlink ref="C26" r:id="rId24" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{8BA36C7A-40A9-47FD-ADDE-0EC47F81622B}"/>
+    <hyperlink ref="C27" r:id="rId25" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{3524DB15-29F1-4087-A223-D23500E68512}"/>
+    <hyperlink ref="C28" r:id="rId26" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{4B9F0A71-0F0C-4424-B32A-098868E26484}"/>
+    <hyperlink ref="C29" r:id="rId27" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{37F461FA-CF4C-4A07-B009-D63569D9925B}"/>
+    <hyperlink ref="C30" r:id="rId28" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{6DE83A56-4708-4BAD-BAA1-069E48A13647}"/>
+    <hyperlink ref="C31" r:id="rId29" display="https://studyhall.pmi.org/app/pmi-study-hall-plus-2" xr:uid="{A9EBF9B5-D5EB-4854-9269-71FA8BD05B36}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7263,15 +9140,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1B71FF-5585-4312-95BA-F290FBB9D21E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:N176"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C123" sqref="C122:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7283,7 +9160,4735 @@
     <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.54296875" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M2" s="8">
+        <f>COUNTA($B$2:B2)/175</f>
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M3" s="8">
+        <f>COUNTA($B$2:B3)/175</f>
+        <v>1.1428571428571429E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M4" s="8">
+        <f>COUNTA($B$2:B4)/175</f>
+        <v>1.7142857142857144E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M5" s="8">
+        <f>COUNTA($B$2:B5)/175</f>
+        <v>2.2857142857142857E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M6" s="8">
+        <f>COUNTA($B$2:B6)/175</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M7" s="8">
+        <f>COUNTA($B$2:B7)/175</f>
+        <v>3.4285714285714287E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H8" t="s">
+        <v>289</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M8" s="8">
+        <f>COUNTA($B$2:B8)/175</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M9" s="8">
+        <f>COUNTA($B$2:B9)/175</f>
+        <v>4.5714285714285714E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H10" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M10" s="8">
+        <f>COUNTA($B$2:B10)/175</f>
+        <v>5.1428571428571428E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M11" s="8">
+        <f>COUNTA($B$2:B11)/175</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M12" s="8">
+        <f>COUNTA($B$2:B12)/175</f>
+        <v>6.2857142857142861E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M13" s="8">
+        <f>COUNTA($B$2:B13)/175</f>
+        <v>6.8571428571428575E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M14" s="8">
+        <f>COUNTA($B$2:B14)/175</f>
+        <v>7.4285714285714288E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M15" s="8">
+        <f>COUNTA($B$2:B15)/175</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M16" s="8">
+        <f>COUNTA($B$2:B16)/175</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M17" s="8">
+        <f>COUNTA($B$2:B17)/175</f>
+        <v>9.1428571428571428E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="K18" t="s">
+        <v>438</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M18" s="8">
+        <f>COUNTA($B$2:B18)/175</f>
+        <v>9.7142857142857142E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M19" s="8">
+        <f>COUNTA($B$2:B19)/175</f>
+        <v>0.10285714285714286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="K20" t="s">
+        <v>441</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M20" s="8">
+        <f>COUNTA($B$2:B20)/175</f>
+        <v>0.10857142857142857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M21" s="8">
+        <f>COUNTA($B$2:B21)/175</f>
+        <v>0.11428571428571428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M22" s="8">
+        <f>COUNTA($B$2:B22)/175</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M23" s="8">
+        <f>COUNTA($B$2:B23)/175</f>
+        <v>0.12571428571428572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M24" s="8">
+        <f>COUNTA($B$2:B24)/175</f>
+        <v>0.13142857142857142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M25" s="8">
+        <f>COUNTA($B$2:B25)/175</f>
+        <v>0.13714285714285715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M26" s="8">
+        <f>COUNTA($B$2:B26)/175</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M27" s="8">
+        <f>COUNTA($B$2:B27)/175</f>
+        <v>0.14857142857142858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M28" s="8">
+        <f>COUNTA($B$2:B28)/175</f>
+        <v>0.15428571428571428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M29" s="8">
+        <f>COUNTA($B$2:B29)/175</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M30" s="8">
+        <f>COUNTA($B$2:B30)/175</f>
+        <v>0.1657142857142857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M31" s="8">
+        <f>COUNTA($B$2:B31)/175</f>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M32" s="8">
+        <f>COUNTA($B$2:B32)/175</f>
+        <v>0.17714285714285713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M33" s="8">
+        <f>COUNTA($B$2:B33)/175</f>
+        <v>0.18285714285714286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="M34" s="8">
+        <f>COUNTA($B$2:B34)/175</f>
+        <v>0.18857142857142858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M35" s="8">
+        <f>COUNTA($B$2:B35)/175</f>
+        <v>0.19428571428571428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M36" s="8">
+        <f>COUNTA($B$2:B25)/175</f>
+        <v>0.13714285714285715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M37" s="8">
+        <f>COUNTA($B$2:B26)/175</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M38" s="8">
+        <f>COUNTA($B$2:B27)/175</f>
+        <v>0.14857142857142858</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M39" s="8">
+        <f>COUNTA($B$2:B28)/175</f>
+        <v>0.15428571428571428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M40" s="8">
+        <f>COUNTA($B$2:B29)/175</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M41" s="8">
+        <f>COUNTA($B$2:B30)/175</f>
+        <v>0.1657142857142857</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M42" s="8">
+        <f>COUNTA($B$2:B31)/175</f>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" s="8">
+        <f>COUNTA($B$2:B32)/175</f>
+        <v>0.17714285714285713</v>
+      </c>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M44" s="8">
+        <f>COUNTA($B$2:B33)/175</f>
+        <v>0.18285714285714286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M45" s="8">
+        <f>COUNTA($B$2:B34)/175</f>
+        <v>0.18857142857142858</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M46" s="8">
+        <f>COUNTA($B$2:B35)/175</f>
+        <v>0.19428571428571428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M47" s="10">
+        <f>COUNTA($B$2:B36)/175</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M48" s="8">
+        <f>COUNTA($B$2:B37)/175</f>
+        <v>0.20571428571428571</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M49" s="8">
+        <f>COUNTA($B$2:B38)/175</f>
+        <v>0.21142857142857144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M50" s="8">
+        <f>COUNTA($B$2:B39)/175</f>
+        <v>0.21714285714285714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M51" s="8">
+        <f>COUNTA($B$2:B40)/175</f>
+        <v>0.22285714285714286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M52" s="8">
+        <f>COUNTA($B$2:B41)/175</f>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" s="8">
+        <f>COUNTA($B$2:B42)/175</f>
+        <v>0.23428571428571429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M54" s="8">
+        <f>COUNTA($B$2:B43)/175</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M55" s="8">
+        <f>COUNTA($B$2:B55)/175</f>
+        <v>0.30857142857142855</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M56" s="8">
+        <f>COUNTA($B$2:B56)/175</f>
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>654</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M57" s="8">
+        <f>COUNTA($B$2:B57)/175</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="K58" t="s">
+        <v>652</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M58" s="8">
+        <f>COUNTA($B$2:B58)/175</f>
+        <v>0.32571428571428573</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>661</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M59" s="8">
+        <f>COUNTA($B$2:B59)/175</f>
+        <v>0.33142857142857141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M60" s="8">
+        <f>COUNTA($B$2:B60)/175</f>
+        <v>0.33714285714285713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>667</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>668</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="K61" s="32"/>
+      <c r="L61" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M61" s="8">
+        <f>COUNTA($B$2:B61)/175</f>
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>670</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M62" s="8">
+        <f>COUNTA($B$2:B62)/175</f>
+        <v>0.34857142857142859</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M63" s="8">
+        <f>COUNTA($B$2:B63)/175</f>
+        <v>0.35428571428571426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>675</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>676</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M64" s="8">
+        <f>COUNTA($B$2:B64)/175</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M65" s="8">
+        <f>COUNTA($B$2:B65)/175</f>
+        <v>0.36571428571428571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M66" s="8">
+        <f>COUNTA($B$2:B66)/175</f>
+        <v>0.37142857142857144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>686</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M67" s="8">
+        <f>COUNTA($B$2:B67)/175</f>
+        <v>0.37714285714285717</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>690</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M68" s="8">
+        <f>COUNTA($B$2:B68)/175</f>
+        <v>0.38285714285714284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M69" s="8">
+        <f>COUNTA($B$2:B69)/175</f>
+        <v>0.38857142857142857</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M70" s="8">
+        <f>COUNTA($B$2:B70)/175</f>
+        <v>0.39428571428571429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="H71" s="34"/>
+      <c r="J71" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M71" s="10">
+        <f>COUNTA($B$2:B71)/175</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M72" s="8">
+        <f>COUNTA($B$2:B72)/175</f>
+        <v>0.40571428571428569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>713</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M73" s="8">
+        <f>COUNTA($B$2:B73)/175</f>
+        <v>0.41142857142857142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>716</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>717</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>718</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M74" s="8">
+        <f>COUNTA($B$2:B74)/175</f>
+        <v>0.41714285714285715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>719</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>720</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M75" s="8">
+        <f>COUNTA($B$2:B75)/175</f>
+        <v>0.42285714285714288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>724</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M76" s="8">
+        <f>COUNTA($B$2:B76)/175</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>725</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>726</v>
+      </c>
+      <c r="E77" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M77" s="8">
+        <f>COUNTA($B$2:B77)/175</f>
+        <v>0.43428571428571427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>730</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>731</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>732</v>
+      </c>
+      <c r="G78" s="37" t="s">
+        <v>733</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M78" s="8">
+        <f>COUNTA($B$2:B78)/175</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>734</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>735</v>
+      </c>
+      <c r="E79" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="37" t="s">
+        <v>736</v>
+      </c>
+      <c r="G79" s="37" t="s">
+        <v>733</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M79" s="8">
+        <f>COUNTA($B$2:B79)/175</f>
+        <v>0.44571428571428573</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>737</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>738</v>
+      </c>
+      <c r="E80" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>740</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M80" s="8">
+        <f>COUNTA($B$2:B80)/175</f>
+        <v>0.4514285714285714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>741</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>742</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>743</v>
+      </c>
+      <c r="G81" s="37" t="s">
+        <v>744</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M81" s="8">
+        <f>COUNTA($B$2:B81)/175</f>
+        <v>0.45714285714285713</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>746</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>747</v>
+      </c>
+      <c r="G82" s="37" t="s">
+        <v>733</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M82" s="8">
+        <f>COUNTA($B$2:B82)/175</f>
+        <v>0.46285714285714286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>748</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="37" t="s">
+        <v>750</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>733</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M83" s="8">
+        <f>COUNTA($B$2:B83)/175</f>
+        <v>0.46857142857142858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>752</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>753</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>733</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M84" s="8">
+        <f>COUNTA($B$2:B84)/175</f>
+        <v>0.47428571428571431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>755</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>756</v>
+      </c>
+      <c r="G85" s="37" t="s">
+        <v>733</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M85" s="8">
+        <f>COUNTA($B$2:B85)/175</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>763</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>764</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>765</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M86" s="8">
+        <f>COUNTA($B$2:B86)/175</f>
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>766</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>767</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>768</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M87" s="8">
+        <f>COUNTA($B$2:B87)/175</f>
+        <v>0.49142857142857144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>769</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>770</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>771</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M88" s="8">
+        <f>COUNTA($B$2:B88)/175</f>
+        <v>0.49714285714285716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>773</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M89" s="8">
+        <f>COUNTA($B$2:B89)/175</f>
+        <v>0.50285714285714289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M90" s="8">
+        <f>COUNTA($B$2:B90)/175</f>
+        <v>0.50857142857142856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>779</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>780</v>
+      </c>
+      <c r="G91" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M91" s="8">
+        <f>COUNTA($B$2:B91)/175</f>
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>783</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M92" s="8">
+        <f>COUNTA($B$2:B92)/175</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="39" t="s">
+        <v>787</v>
+      </c>
+      <c r="G93" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M93" s="8">
+        <f>COUNTA($B$2:B93)/175</f>
+        <v>0.52571428571428569</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="G94" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M94" s="8">
+        <f>COUNTA($B$2:B94)/175</f>
+        <v>0.53142857142857147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>790</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>791</v>
+      </c>
+      <c r="G95" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M95" s="8">
+        <f>COUNTA($B$2:B95)/175</f>
+        <v>0.53714285714285714</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>792</v>
+      </c>
+      <c r="D96" s="39" t="s">
+        <v>793</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="39" t="s">
+        <v>794</v>
+      </c>
+      <c r="G96" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M96" s="8">
+        <f>COUNTA($B$2:B96)/175</f>
+        <v>0.54285714285714282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" s="39" t="s">
+        <v>795</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>796</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="39" t="s">
+        <v>797</v>
+      </c>
+      <c r="G97" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M97" s="8">
+        <f>COUNTA($B$2:B97)/175</f>
+        <v>0.5485714285714286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" s="39" t="s">
+        <v>798</v>
+      </c>
+      <c r="D98" s="39" t="s">
+        <v>799</v>
+      </c>
+      <c r="E98" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="39" t="s">
+        <v>800</v>
+      </c>
+      <c r="G98" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M98" s="8">
+        <f>COUNTA($B$2:B98)/175</f>
+        <v>0.55428571428571427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" s="39" t="s">
+        <v>801</v>
+      </c>
+      <c r="D99" s="39" t="s">
+        <v>802</v>
+      </c>
+      <c r="E99" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="39" t="s">
+        <v>803</v>
+      </c>
+      <c r="G99" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M99" s="8">
+        <f>COUNTA($B$2:B99)/175</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>804</v>
+      </c>
+      <c r="D100" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="E100" s="39" t="s">
+        <v>806</v>
+      </c>
+      <c r="F100" s="39" t="s">
+        <v>807</v>
+      </c>
+      <c r="G100" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M100" s="8">
+        <f>COUNTA($B$2:B100)/175</f>
+        <v>0.56571428571428573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" s="39" t="s">
+        <v>808</v>
+      </c>
+      <c r="D101" s="39" t="s">
+        <v>809</v>
+      </c>
+      <c r="E101" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="39" t="s">
+        <v>810</v>
+      </c>
+      <c r="G101" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M101" s="8">
+        <f>COUNTA($B$2:B101)/175</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>811</v>
+      </c>
+      <c r="D102" s="39" t="s">
+        <v>812</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="39" t="s">
+        <v>813</v>
+      </c>
+      <c r="G102" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M102" s="8">
+        <f>COUNTA($B$2:B102)/175</f>
+        <v>0.57714285714285718</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>11</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="D103" s="39" t="s">
+        <v>815</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="39" t="s">
+        <v>816</v>
+      </c>
+      <c r="G103" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M103" s="8">
+        <f>COUNTA($B$2:B103)/175</f>
+        <v>0.58285714285714285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>12</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>817</v>
+      </c>
+      <c r="D104" s="39" t="s">
+        <v>818</v>
+      </c>
+      <c r="E104" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="39" t="s">
+        <v>819</v>
+      </c>
+      <c r="G104" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M104" s="8">
+        <f>COUNTA($B$2:B104)/175</f>
+        <v>0.58857142857142852</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>13</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>820</v>
+      </c>
+      <c r="D105" s="39" t="s">
+        <v>821</v>
+      </c>
+      <c r="E105" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="39" t="s">
+        <v>822</v>
+      </c>
+      <c r="G105" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M105" s="8">
+        <f>COUNTA($B$2:B105)/175</f>
+        <v>0.59428571428571431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M106" s="10">
+        <f>COUNTA($B$2:B106)/175</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M107" s="8">
+        <f>COUNTA($B$2:B107)/175</f>
+        <v>0.60571428571428576</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M108" s="8">
+        <f>COUNTA($B$2:B108)/175</f>
+        <v>0.61142857142857143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M109" s="8">
+        <f>COUNTA($B$2:B109)/175</f>
+        <v>0.6171428571428571</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M110" s="8">
+        <f>COUNTA($B$2:B110)/175</f>
+        <v>0.62285714285714289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M111" s="8">
+        <f>COUNTA($B$2:B111)/175</f>
+        <v>0.62857142857142856</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M112" s="8">
+        <f>COUNTA($B$2:B112)/175</f>
+        <v>0.63428571428571423</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="L113" s="5"/>
+      <c r="M113" s="8">
+        <f>COUNTA($B$2:B113)/175</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="J114" s="11"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="8">
+        <f>COUNTA($B$2:B114)/175</f>
+        <v>0.64571428571428569</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="J115" s="11"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="8">
+        <f>COUNTA($B$2:B115)/175</f>
+        <v>0.65142857142857147</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="J116" s="11"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="8">
+        <f>COUNTA($B$2:B116)/175</f>
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="J117" s="11"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="8">
+        <f>COUNTA($B$2:B117)/175</f>
+        <v>0.66285714285714281</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="J118" s="11"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="8">
+        <f>COUNTA($B$2:B118)/175</f>
+        <v>0.66857142857142859</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="J119" s="11"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="8">
+        <f>COUNTA($B$2:B119)/175</f>
+        <v>0.67428571428571427</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="J120" s="11"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="8">
+        <f>COUNTA($B$2:B120)/175</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="J121" s="11"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="8">
+        <f>COUNTA($B$2:B121)/175</f>
+        <v>0.68571428571428572</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="J122" s="11"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="8">
+        <f>COUNTA($B$2:B122)/175</f>
+        <v>0.69142857142857139</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="J123" s="11"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="8">
+        <f>COUNTA($B$2:B123)/175</f>
+        <v>0.69714285714285718</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="J124" s="11"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="8">
+        <f>COUNTA($B$2:B124)/175</f>
+        <v>0.70285714285714285</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="J125" s="11"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="8">
+        <f>COUNTA($B$2:B125)/175</f>
+        <v>0.70857142857142852</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="J126" s="11"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="8">
+        <f>COUNTA($B$2:B126)/175</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="J127" s="11"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="8">
+        <f>COUNTA($B$2:B127)/175</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="J128" s="11"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="8">
+        <f>COUNTA($B$2:B128)/175</f>
+        <v>0.72571428571428576</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="J129" s="11"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="8">
+        <f>COUNTA($B$2:B129)/175</f>
+        <v>0.73142857142857143</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="J130" s="11"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="8">
+        <f>COUNTA($B$2:B130)/175</f>
+        <v>0.7371428571428571</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="J131" s="11"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="8">
+        <f>COUNTA($B$2:B131)/175</f>
+        <v>0.74285714285714288</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="J132" s="11"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="8">
+        <f>COUNTA($B$2:B132)/175</f>
+        <v>0.74857142857142855</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="J133" s="11"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="8">
+        <f>COUNTA($B$2:B133)/175</f>
+        <v>0.75428571428571434</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="J134" s="11"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="8">
+        <f>COUNTA($B$2:B134)/175</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="J135" s="11"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="8">
+        <f>COUNTA($B$2:B135)/175</f>
+        <v>0.76571428571428568</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="J136" s="11"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="8">
+        <f>COUNTA($B$2:B136)/175</f>
+        <v>0.77142857142857146</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="J137" s="11"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="8">
+        <f>COUNTA($B$2:B137)/175</f>
+        <v>0.77714285714285714</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="J138" s="11"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="8">
+        <f>COUNTA($B$2:B138)/175</f>
+        <v>0.78285714285714281</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="J139" s="11"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="8">
+        <f>COUNTA($B$2:B139)/175</f>
+        <v>0.78857142857142859</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="J140" s="11"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="8">
+        <f>COUNTA($B$2:B140)/175</f>
+        <v>0.79428571428571426</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="J141" s="11"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="10">
+        <f>COUNTA($B$2:B141)/175</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="J142" s="11"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="8">
+        <f>COUNTA($B$2:B142)/175</f>
+        <v>0.80571428571428572</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="J143" s="11"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="8">
+        <f>COUNTA($B$2:B143)/175</f>
+        <v>0.81142857142857139</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="J144" s="11"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="8">
+        <f>COUNTA($B$2:B144)/175</f>
+        <v>0.81714285714285717</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="J145" s="11"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="8">
+        <f>COUNTA($B$2:B145)/175</f>
+        <v>0.82285714285714284</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="J146" s="11"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="8">
+        <f>COUNTA($B$2:B146)/175</f>
+        <v>0.82857142857142863</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="J147" s="11"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="8">
+        <f>COUNTA($B$2:B147)/175</f>
+        <v>0.8342857142857143</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="J148" s="11"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="8">
+        <f>COUNTA($B$2:B148)/175</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="J149" s="11"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="8">
+        <f>COUNTA($B$2:B149)/175</f>
+        <v>0.84571428571428575</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="J150" s="11"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="8">
+        <f>COUNTA($B$2:B150)/175</f>
+        <v>0.85142857142857142</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="J151" s="11"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="8">
+        <f>COUNTA($B$2:B151)/175</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="1"/>
+      <c r="L152" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M152" s="8">
+        <f>COUNTA($B$2:B152)/175</f>
+        <v>0.86285714285714288</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="1"/>
+      <c r="L153" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M153" s="8">
+        <f>COUNTA($B$2:B153)/175</f>
+        <v>0.86857142857142855</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="1"/>
+      <c r="L154" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M154" s="8">
+        <f>COUNTA($B$2:B154)/175</f>
+        <v>0.87428571428571433</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="1"/>
+      <c r="L155" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M155" s="8">
+        <f>COUNTA($B$2:B155)/175</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="1"/>
+      <c r="L156" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M156" s="8">
+        <f>COUNTA($B$2:B156)/175</f>
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="1"/>
+      <c r="L157" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M157" s="8">
+        <f>COUNTA($B$2:B157)/175</f>
+        <v>0.89142857142857146</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="1"/>
+      <c r="J158"/>
+      <c r="L158" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M158" s="8">
+        <f>COUNTA($B$2:B158)/175</f>
+        <v>0.89714285714285713</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="L159" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M159" s="8">
+        <f>COUNTA($B$2:B159)/175</f>
+        <v>0.9028571428571428</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="1"/>
+      <c r="L160" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M160" s="8">
+        <f>COUNTA($B$2:B160)/175</f>
+        <v>0.90857142857142859</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
+      <c r="J161" s="1"/>
+      <c r="L161" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M161" s="8">
+        <f>COUNTA($B$2:B161)/175</f>
+        <v>0.91428571428571426</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="L162" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M162" s="8">
+        <f>COUNTA($B$2:B162)/175</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="1"/>
+      <c r="L163" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M163" s="8">
+        <f>COUNTA($B$2:B163)/175</f>
+        <v>0.92571428571428571</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="L164" s="5"/>
+      <c r="M164" s="8">
+        <f>COUNTA($B$2:B164)/175</f>
+        <v>0.93142857142857138</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="L165" s="5"/>
+      <c r="M165" s="8">
+        <f>COUNTA($B$2:B165)/175</f>
+        <v>0.93714285714285717</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="L166" s="5"/>
+      <c r="M166" s="8">
+        <f>COUNTA($B$2:B166)/175</f>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="L167" s="5"/>
+      <c r="M167" s="8">
+        <f>COUNTA($B$2:B167)/175</f>
+        <v>0.94857142857142862</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="L168" s="5"/>
+      <c r="M168" s="8">
+        <f>COUNTA($B$2:B168)/175</f>
+        <v>0.95428571428571429</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="L169" s="5"/>
+      <c r="M169" s="8">
+        <f>COUNTA($B$2:B169)/175</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="L170" s="5"/>
+      <c r="M170" s="8">
+        <f>COUNTA($B$2:B170)/175</f>
+        <v>0.96571428571428575</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="L171" s="5"/>
+      <c r="M171" s="8">
+        <f>COUNTA($B$2:B171)/175</f>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="J172" s="11"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="8">
+        <f>COUNTA($B$2:B172)/175</f>
+        <v>0.97714285714285709</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="J173" s="11"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="8">
+        <f>COUNTA($B$2:B173)/175</f>
+        <v>0.98285714285714287</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="J174" s="11"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="8">
+        <f>COUNTA($B$2:B174)/175</f>
+        <v>0.98857142857142855</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="J175" s="11"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="8">
+        <f>COUNTA($B$2:B175)/175</f>
+        <v>0.99428571428571433</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="J176" s="11"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="10">
+        <f>COUNTA($B$2:B176)/175</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF32CB5-686D-49A4-85B3-C37F8E51F26C}">
+  <dimension ref="B2:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="11" max="11" width="36.90625" customWidth="1"/>
+    <col min="12" max="12" width="79.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="J2" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="25" x14ac:dyDescent="0.25">
+      <c r="K5" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="25" x14ac:dyDescent="0.25">
+      <c r="K9" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="K12" s="21" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>704</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>709</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37571274-8551-42CE-B5B4-AA494BA78978}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B1:N176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
     <col min="10" max="10" width="24.08984375" customWidth="1"/>
     <col min="11" max="11" width="14.1796875" customWidth="1"/>
     <col min="12" max="12" width="12.6328125" style="8"/>
@@ -7309,10 +13914,10 @@
         <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>264</v>
@@ -7334,26 +13939,26 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>393</v>
+      <c r="C2" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>396</v>
+        <v>214</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="L2" s="8">
         <f>COUNTA($B$2:B2)/175</f>
@@ -7367,24 +13972,24 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K3" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="K3" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L3" s="8">
         <f>COUNTA($B$2:B3)/175</f>
         <v>1.1428571428571429E-2</v>
@@ -7394,25 +13999,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K4" s="5"/>
+      <c r="C4" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L4" s="8">
         <f>COUNTA($B$2:B4)/175</f>
         <v>1.7142857142857144E-2</v>
@@ -7422,25 +14029,25 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K5" s="5"/>
+      <c r="C5" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="K5" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L5" s="8">
         <f>COUNTA($B$2:B5)/175</f>
         <v>2.2857142857142857E-2</v>
@@ -7450,25 +14057,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="C6" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L6" s="8">
         <f>COUNTA($B$2:B6)/175</f>
         <v>2.8571428571428571E-2</v>
@@ -7478,25 +14087,27 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="C7" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L7" s="8">
         <f>COUNTA($B$2:B7)/175</f>
         <v>3.4285714285714287E-2</v>
@@ -7506,28 +14117,25 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="C8" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="K8" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L8" s="8">
         <f>COUNTA($B$2:B8)/175</f>
         <v>0.04</v>
@@ -7537,25 +14145,25 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K9" s="5"/>
+      <c r="F9" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="K9" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L9" s="8">
         <f>COUNTA($B$2:B9)/175</f>
         <v>4.5714285714285714E-2</v>
@@ -7565,28 +14173,27 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L10" s="8">
         <f>COUNTA($B$2:B10)/175</f>
         <v>5.1428571428571428E-2</v>
@@ -7596,25 +14203,25 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K11" s="5"/>
+      <c r="C11" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="K11" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L11" s="8">
         <f>COUNTA($B$2:B11)/175</f>
         <v>5.7142857142857141E-2</v>
@@ -7624,25 +14231,27 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K12" s="5"/>
+      <c r="C12" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L12" s="8">
         <f>COUNTA($B$2:B12)/175</f>
         <v>6.2857142857142861E-2</v>
@@ -7652,29 +14261,26 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>398</v>
-      </c>
+      <c r="C13" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L13" s="8">
         <f>COUNTA($B$2:B13)/175</f>
         <v>6.8571428571428575E-2</v>
@@ -7684,26 +14290,27 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>437</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="C14" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L14" s="8">
         <f>COUNTA($B$2:B14)/175</f>
         <v>7.4285714285714288E-2</v>
@@ -7713,31 +14320,25 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="J15" t="s">
-        <v>438</v>
-      </c>
-      <c r="K15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="K15" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L15" s="8">
         <f>COUNTA($B$2:B15)/175</f>
         <v>0.08</v>
@@ -7747,25 +14348,27 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="K16" s="5"/>
+      <c r="C16" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L16" s="8">
         <f>COUNTA($B$2:B16)/175</f>
         <v>8.5714285714285715E-2</v>
@@ -7775,31 +14378,25 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" t="s">
-        <v>289</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="J17" t="s">
-        <v>441</v>
-      </c>
-      <c r="K17" s="5"/>
+      <c r="C17" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="K17" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="L17" s="8">
         <f>COUNTA($B$2:B17)/175</f>
         <v>9.1428571428571428E-2</v>
@@ -7809,25 +14406,25 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="K18" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="K18" s="5"/>
       <c r="L18" s="8">
         <f>COUNTA($B$2:B18)/175</f>
         <v>9.7142857142857142E-2</v>
@@ -7836,24 +14433,6 @@
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="8">
@@ -7865,24 +14444,6 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>440</v>
-      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="8">
         <f>COUNTA($B$2:B20)/175</f>
@@ -7893,30 +14454,7 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>463</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="5"/>
       <c r="L21" s="8">
         <f>COUNTA($B$2:B21)/175</f>
@@ -7927,14 +14465,6 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="11" t="s">
-        <v>464</v>
-      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="8">
         <f>COUNTA($B$2:B22)/175</f>
@@ -7945,12 +14475,6 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="I23" s="11"/>
       <c r="K23" s="5"/>
       <c r="L23" s="8">
         <f>COUNTA($B$2:B23)/175</f>
@@ -7961,12 +14485,6 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="I24" s="11"/>
       <c r="K24" s="5"/>
       <c r="L24" s="8">
         <f>COUNTA($B$2:B24)/175</f>
@@ -7977,10 +14495,6 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="1"/>
-      <c r="I25" s="11"/>
       <c r="K25" s="5"/>
       <c r="L25" s="8">
         <f>COUNTA($B$2:B25)/175</f>
@@ -7991,11 +14505,6 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="I26" s="11"/>
       <c r="K26" s="5"/>
       <c r="L26" s="8">
         <f>COUNTA($B$2:B26)/175</f>
@@ -8006,12 +14515,6 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="11"/>
       <c r="K27" s="5"/>
       <c r="L27" s="8">
         <f>COUNTA($B$2:B27)/175</f>
@@ -8022,11 +14525,6 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="I28" s="11"/>
       <c r="K28" s="5"/>
       <c r="L28" s="8">
         <f>COUNTA($B$2:B28)/175</f>
@@ -8037,11 +14535,6 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="I29" s="11"/>
       <c r="K29" s="5"/>
       <c r="L29" s="8">
         <f>COUNTA($B$2:B29)/175</f>
@@ -8052,11 +14545,6 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="I30" s="11"/>
       <c r="K30" s="5"/>
       <c r="L30" s="8">
         <f>COUNTA($B$2:B30)/175</f>
@@ -8071,7 +14559,6 @@
       <c r="D31" s="2"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="I31" s="11"/>
       <c r="K31" s="5"/>
       <c r="L31" s="8">
         <f>COUNTA($B$2:B31)/175</f>
@@ -8086,7 +14573,6 @@
       <c r="D32" s="2"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="I32" s="11"/>
       <c r="K32" s="5"/>
       <c r="L32" s="8">
         <f>COUNTA($B$2:B32)/175</f>
@@ -8100,7 +14586,6 @@
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="1"/>
-      <c r="I33" s="11"/>
       <c r="K33" s="5"/>
       <c r="L33" s="8">
         <f>COUNTA($B$2:B33)/175</f>
@@ -8115,7 +14600,6 @@
       <c r="D34" s="2"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="I34" s="11"/>
       <c r="K34" s="5"/>
       <c r="L34" s="8">
         <f>COUNTA($B$2:B34)/175</f>
@@ -8130,7 +14614,6 @@
       <c r="D35" s="2"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="I35" s="11"/>
       <c r="K35" s="5"/>
       <c r="L35" s="8">
         <f>COUNTA($B$2:B35)/175</f>
@@ -8145,7 +14628,6 @@
       <c r="D36" s="3"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="I36" s="11"/>
       <c r="K36" s="5"/>
       <c r="L36" s="10">
         <f>COUNTA($B$2:B36)/175</f>
@@ -8160,7 +14642,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="I37" s="11"/>
       <c r="K37" s="5"/>
       <c r="L37" s="8">
         <f>COUNTA($B$2:B37)/175</f>
@@ -8176,8 +14657,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="5"/>
       <c r="F38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="11"/>
+      <c r="I38" s="4"/>
       <c r="K38" s="5"/>
       <c r="L38" s="8">
         <f>COUNTA($B$2:B38)/175</f>
@@ -8192,8 +14672,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="4"/>
       <c r="K39" s="5"/>
       <c r="L39" s="8">
         <f>COUNTA($B$2:B39)/175</f>
@@ -8208,7 +14687,6 @@
       <c r="D40" s="3"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="I40" s="11"/>
       <c r="K40" s="5"/>
       <c r="L40" s="8">
         <f>COUNTA($B$2:B40)/175</f>
@@ -8223,7 +14701,6 @@
       <c r="D41" s="3"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="I41" s="11"/>
       <c r="K41" s="5"/>
       <c r="L41" s="8">
         <f>COUNTA($B$2:B41)/175</f>
@@ -8238,7 +14715,6 @@
       <c r="D42" s="3"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="I42" s="11"/>
       <c r="K42" s="5"/>
       <c r="L42" s="8">
         <f>COUNTA($B$2:B42)/175</f>
@@ -8253,7 +14729,6 @@
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
       <c r="F43" s="5"/>
-      <c r="I43" s="11"/>
       <c r="K43" s="5"/>
       <c r="L43" s="8">
         <f>COUNTA($B$2:B43)/175</f>
@@ -8269,7 +14744,6 @@
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
       <c r="F44" s="5"/>
-      <c r="I44" s="11"/>
       <c r="K44" s="5"/>
       <c r="L44" s="8">
         <f>COUNTA($B$2:B44)/175</f>
@@ -8284,7 +14758,6 @@
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
       <c r="F45" s="5"/>
-      <c r="I45" s="11"/>
       <c r="K45" s="5"/>
       <c r="L45" s="8">
         <f>COUNTA($B$2:B45)/175</f>
@@ -8300,7 +14773,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="4"/>
-      <c r="I46" s="11"/>
+      <c r="H46" s="4"/>
       <c r="K46" s="5"/>
       <c r="L46" s="8">
         <f>COUNTA($B$2:B46)/175</f>
@@ -8317,7 +14790,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="11"/>
+      <c r="I47" s="4"/>
       <c r="K47" s="5"/>
       <c r="L47" s="8">
         <f>COUNTA($B$2:B47)/175</f>
@@ -8333,7 +14806,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
-      <c r="I48" s="11"/>
+      <c r="H48" s="4"/>
       <c r="J48" s="2"/>
       <c r="K48" s="5"/>
       <c r="L48" s="8">
@@ -8350,7 +14823,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
-      <c r="I49" s="11"/>
+      <c r="H49" s="4"/>
       <c r="K49" s="5"/>
       <c r="L49" s="8">
         <f>COUNTA($B$2:B49)/175</f>
@@ -8366,7 +14839,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
-      <c r="I50" s="11"/>
+      <c r="H50" s="4"/>
       <c r="K50" s="5"/>
       <c r="L50" s="8">
         <f>COUNTA($B$2:B50)/175</f>
@@ -8381,7 +14854,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
-      <c r="I51" s="11"/>
+      <c r="H51" s="4"/>
       <c r="K51" s="5"/>
       <c r="L51" s="8">
         <f>COUNTA($B$2:B51)/175</f>
@@ -8397,7 +14870,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
-      <c r="I52" s="11"/>
+      <c r="H52" s="4"/>
       <c r="K52" s="5"/>
       <c r="L52" s="8">
         <f>COUNTA($B$2:B52)/175</f>
@@ -8411,7 +14884,6 @@
       <c r="C53" s="5"/>
       <c r="D53" s="2"/>
       <c r="E53" s="5"/>
-      <c r="I53" s="11"/>
       <c r="K53" s="5"/>
       <c r="L53" s="8">
         <f>COUNTA($B$2:B53)/175</f>
@@ -8426,7 +14898,6 @@
       <c r="D54" s="2"/>
       <c r="E54" s="5"/>
       <c r="F54" s="3"/>
-      <c r="I54" s="11"/>
       <c r="K54" s="5"/>
       <c r="L54" s="8">
         <f>COUNTA($B$2:B54)/175</f>
@@ -8441,7 +14912,6 @@
       <c r="D55" s="2"/>
       <c r="E55" s="5"/>
       <c r="F55" s="3"/>
-      <c r="I55" s="11"/>
       <c r="K55" s="5"/>
       <c r="L55" s="8">
         <f>COUNTA($B$2:B55)/175</f>
@@ -8456,7 +14926,6 @@
       <c r="D56" s="2"/>
       <c r="E56" s="5"/>
       <c r="F56" s="3"/>
-      <c r="I56" s="11"/>
       <c r="K56" s="5"/>
       <c r="L56" s="8">
         <f>COUNTA($B$2:B56)/175</f>
@@ -8471,7 +14940,6 @@
       <c r="D57" s="2"/>
       <c r="E57" s="5"/>
       <c r="F57" s="2"/>
-      <c r="I57" s="11"/>
       <c r="K57" s="5"/>
       <c r="L57" s="8">
         <f>COUNTA($B$2:B57)/175</f>
@@ -8486,7 +14954,6 @@
       <c r="D58" s="2"/>
       <c r="E58" s="5"/>
       <c r="F58" s="2"/>
-      <c r="I58" s="11"/>
       <c r="K58" s="5"/>
       <c r="L58" s="8">
         <f>COUNTA($B$2:B58)/175</f>
@@ -8501,7 +14968,6 @@
       <c r="D59" s="2"/>
       <c r="E59" s="5"/>
       <c r="F59" s="2"/>
-      <c r="I59" s="11"/>
       <c r="K59" s="5"/>
       <c r="L59" s="8">
         <f>COUNTA($B$2:B59)/175</f>
@@ -8516,8 +14982,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="5"/>
       <c r="F60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="11"/>
+      <c r="I60" s="2"/>
       <c r="K60" s="5"/>
       <c r="L60" s="8">
         <f>COUNTA($B$2:B60)/175</f>
@@ -8532,7 +14997,6 @@
       <c r="D61" s="2"/>
       <c r="E61" s="5"/>
       <c r="F61" s="2"/>
-      <c r="I61" s="11"/>
       <c r="K61" s="5"/>
       <c r="L61" s="8">
         <f>COUNTA($B$2:B61)/175</f>
@@ -8547,7 +15011,6 @@
       <c r="D62" s="2"/>
       <c r="E62" s="5"/>
       <c r="F62" s="2"/>
-      <c r="I62" s="11"/>
       <c r="K62" s="5"/>
       <c r="L62" s="8">
         <f>COUNTA($B$2:B62)/175</f>
@@ -8562,7 +15025,6 @@
       <c r="D63" s="2"/>
       <c r="E63" s="5"/>
       <c r="F63" s="2"/>
-      <c r="I63" s="11"/>
       <c r="K63" s="5"/>
       <c r="L63" s="8">
         <f>COUNTA($B$2:B63)/175</f>
@@ -8577,7 +15039,6 @@
       <c r="D64" s="2"/>
       <c r="E64" s="5"/>
       <c r="F64" s="2"/>
-      <c r="I64" s="11"/>
       <c r="K64" s="5"/>
       <c r="L64" s="8">
         <f>COUNTA($B$2:B64)/175</f>
@@ -8592,7 +15053,6 @@
       <c r="D65" s="2"/>
       <c r="E65" s="5"/>
       <c r="F65" s="2"/>
-      <c r="I65" s="11"/>
       <c r="K65" s="5"/>
       <c r="L65" s="8">
         <f>COUNTA($B$2:B65)/175</f>
@@ -8607,8 +15067,7 @@
       <c r="D66" s="2"/>
       <c r="E66" s="5"/>
       <c r="F66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="11"/>
+      <c r="I66" s="2"/>
       <c r="K66" s="5"/>
       <c r="L66" s="8">
         <f>COUNTA($B$2:B66)/175</f>
@@ -8623,7 +15082,6 @@
       <c r="D67" s="2"/>
       <c r="E67" s="5"/>
       <c r="F67" s="2"/>
-      <c r="I67" s="11"/>
       <c r="K67" s="5"/>
       <c r="L67" s="8">
         <f>COUNTA($B$2:B67)/175</f>
@@ -8638,7 +15096,6 @@
       <c r="D68" s="2"/>
       <c r="E68" s="5"/>
       <c r="F68" s="2"/>
-      <c r="I68" s="11"/>
       <c r="K68" s="5"/>
       <c r="L68" s="8">
         <f>COUNTA($B$2:B68)/175</f>
@@ -8653,7 +15110,6 @@
       <c r="D69" s="2"/>
       <c r="E69" s="5"/>
       <c r="F69" s="2"/>
-      <c r="I69" s="11"/>
       <c r="K69" s="5"/>
       <c r="L69" s="8">
         <f>COUNTA($B$2:B69)/175</f>
@@ -8668,7 +15124,6 @@
       <c r="D70" s="2"/>
       <c r="E70" s="5"/>
       <c r="F70" s="2"/>
-      <c r="I70" s="11"/>
       <c r="K70" s="5"/>
       <c r="L70" s="8">
         <f>COUNTA($B$2:B70)/175</f>
@@ -8683,7 +15138,6 @@
       <c r="D71" s="2"/>
       <c r="E71" s="5"/>
       <c r="F71" s="2"/>
-      <c r="I71" s="11"/>
       <c r="K71" s="5"/>
       <c r="L71" s="10">
         <f>COUNTA($B$2:B71)/175</f>
@@ -8694,7 +15148,6 @@
       <c r="B72">
         <v>71</v>
       </c>
-      <c r="I72" s="11"/>
       <c r="K72" s="5"/>
       <c r="L72" s="8">
         <f>COUNTA($B$2:B72)/175</f>
@@ -8705,7 +15158,6 @@
       <c r="B73">
         <v>72</v>
       </c>
-      <c r="I73" s="11"/>
       <c r="K73" s="5"/>
       <c r="L73" s="8">
         <f>COUNTA($B$2:B73)/175</f>
@@ -8716,7 +15168,6 @@
       <c r="B74">
         <v>73</v>
       </c>
-      <c r="I74" s="11"/>
       <c r="K74" s="5"/>
       <c r="L74" s="8">
         <f>COUNTA($B$2:B74)/175</f>
@@ -8727,7 +15178,6 @@
       <c r="B75">
         <v>74</v>
       </c>
-      <c r="I75" s="11"/>
       <c r="K75" s="5"/>
       <c r="L75" s="8">
         <f>COUNTA($B$2:B75)/175</f>
@@ -8738,7 +15188,6 @@
       <c r="B76">
         <v>75</v>
       </c>
-      <c r="I76" s="11"/>
       <c r="K76" s="5"/>
       <c r="L76" s="8">
         <f>COUNTA($B$2:B76)/175</f>
@@ -8749,7 +15198,6 @@
       <c r="B77">
         <v>76</v>
       </c>
-      <c r="I77" s="11"/>
       <c r="K77" s="5"/>
       <c r="L77" s="8">
         <f>COUNTA($B$2:B77)/175</f>
@@ -8760,7 +15208,6 @@
       <c r="B78">
         <v>77</v>
       </c>
-      <c r="I78" s="11"/>
       <c r="K78" s="5"/>
       <c r="L78" s="8">
         <f>COUNTA($B$2:B78)/175</f>
@@ -8771,7 +15218,6 @@
       <c r="B79">
         <v>78</v>
       </c>
-      <c r="I79" s="11"/>
       <c r="K79" s="5"/>
       <c r="L79" s="8">
         <f>COUNTA($B$2:B79)/175</f>
@@ -8782,7 +15228,6 @@
       <c r="B80">
         <v>79</v>
       </c>
-      <c r="I80" s="11"/>
       <c r="K80" s="5"/>
       <c r="L80" s="8">
         <f>COUNTA($B$2:B80)/175</f>
@@ -8793,7 +15238,6 @@
       <c r="B81">
         <v>80</v>
       </c>
-      <c r="I81" s="11"/>
       <c r="K81" s="5"/>
       <c r="L81" s="8">
         <f>COUNTA($B$2:B81)/175</f>
@@ -8804,7 +15248,6 @@
       <c r="B82">
         <v>81</v>
       </c>
-      <c r="I82" s="11"/>
       <c r="K82" s="5"/>
       <c r="L82" s="8">
         <f>COUNTA($B$2:B82)/175</f>
@@ -8815,7 +15258,6 @@
       <c r="B83">
         <v>82</v>
       </c>
-      <c r="I83" s="11"/>
       <c r="K83" s="5"/>
       <c r="L83" s="8">
         <f>COUNTA($B$2:B83)/175</f>
@@ -8826,7 +15268,6 @@
       <c r="B84">
         <v>83</v>
       </c>
-      <c r="I84" s="11"/>
       <c r="K84" s="5"/>
       <c r="L84" s="8">
         <f>COUNTA($B$2:B84)/175</f>
@@ -8837,7 +15278,6 @@
       <c r="B85">
         <v>84</v>
       </c>
-      <c r="I85" s="11"/>
       <c r="K85" s="5"/>
       <c r="L85" s="8">
         <f>COUNTA($B$2:B85)/175</f>
@@ -8848,7 +15288,6 @@
       <c r="B86">
         <v>85</v>
       </c>
-      <c r="I86" s="11"/>
       <c r="K86" s="5"/>
       <c r="L86" s="8">
         <f>COUNTA($B$2:B86)/175</f>
@@ -8859,7 +15298,6 @@
       <c r="B87">
         <v>86</v>
       </c>
-      <c r="I87" s="11"/>
       <c r="K87" s="5"/>
       <c r="L87" s="8">
         <f>COUNTA($B$2:B87)/175</f>
@@ -8870,7 +15308,6 @@
       <c r="B88">
         <v>87</v>
       </c>
-      <c r="I88" s="11"/>
       <c r="K88" s="5"/>
       <c r="L88" s="8">
         <f>COUNTA($B$2:B88)/175</f>
@@ -8881,7 +15318,6 @@
       <c r="B89">
         <v>88</v>
       </c>
-      <c r="I89" s="11"/>
       <c r="K89" s="5"/>
       <c r="L89" s="8">
         <f>COUNTA($B$2:B89)/175</f>
@@ -8892,7 +15328,6 @@
       <c r="B90">
         <v>89</v>
       </c>
-      <c r="I90" s="11"/>
       <c r="K90" s="5"/>
       <c r="L90" s="8">
         <f>COUNTA($B$2:B90)/175</f>
@@ -8903,7 +15338,6 @@
       <c r="B91">
         <v>90</v>
       </c>
-      <c r="I91" s="11"/>
       <c r="K91" s="5"/>
       <c r="L91" s="8">
         <f>COUNTA($B$2:B91)/175</f>
@@ -8914,7 +15348,6 @@
       <c r="B92">
         <v>91</v>
       </c>
-      <c r="I92" s="11"/>
       <c r="K92" s="5"/>
       <c r="L92" s="8">
         <f>COUNTA($B$2:B92)/175</f>
@@ -8925,7 +15358,6 @@
       <c r="B93">
         <v>92</v>
       </c>
-      <c r="I93" s="11"/>
       <c r="K93" s="5"/>
       <c r="L93" s="8">
         <f>COUNTA($B$2:B93)/175</f>
@@ -8936,7 +15368,6 @@
       <c r="B94">
         <v>93</v>
       </c>
-      <c r="I94" s="11"/>
       <c r="K94" s="5"/>
       <c r="L94" s="8">
         <f>COUNTA($B$2:B94)/175</f>
@@ -8947,7 +15378,6 @@
       <c r="B95">
         <v>94</v>
       </c>
-      <c r="I95" s="11"/>
       <c r="K95" s="5"/>
       <c r="L95" s="8">
         <f>COUNTA($B$2:B95)/175</f>
@@ -8958,7 +15388,6 @@
       <c r="B96">
         <v>95</v>
       </c>
-      <c r="I96" s="11"/>
       <c r="K96" s="5"/>
       <c r="L96" s="8">
         <f>COUNTA($B$2:B96)/175</f>
@@ -8969,7 +15398,6 @@
       <c r="B97">
         <v>96</v>
       </c>
-      <c r="I97" s="11"/>
       <c r="K97" s="5"/>
       <c r="L97" s="8">
         <f>COUNTA($B$2:B97)/175</f>
@@ -8980,7 +15408,6 @@
       <c r="B98">
         <v>97</v>
       </c>
-      <c r="I98" s="11"/>
       <c r="K98" s="5"/>
       <c r="L98" s="8">
         <f>COUNTA($B$2:B98)/175</f>
@@ -8991,7 +15418,6 @@
       <c r="B99">
         <v>98</v>
       </c>
-      <c r="I99" s="11"/>
       <c r="K99" s="5"/>
       <c r="L99" s="8">
         <f>COUNTA($B$2:B99)/175</f>
@@ -9002,7 +15428,6 @@
       <c r="B100">
         <v>99</v>
       </c>
-      <c r="I100" s="11"/>
       <c r="K100" s="5"/>
       <c r="L100" s="8">
         <f>COUNTA($B$2:B100)/175</f>
@@ -9013,7 +15438,6 @@
       <c r="B101">
         <v>100</v>
       </c>
-      <c r="I101" s="11"/>
       <c r="K101" s="5"/>
       <c r="L101" s="8">
         <f>COUNTA($B$2:B101)/175</f>
@@ -9024,7 +15448,6 @@
       <c r="B102">
         <v>101</v>
       </c>
-      <c r="I102" s="11"/>
       <c r="K102" s="5"/>
       <c r="L102" s="8">
         <f>COUNTA($B$2:B102)/175</f>
@@ -9035,7 +15458,6 @@
       <c r="B103">
         <v>102</v>
       </c>
-      <c r="I103" s="11"/>
       <c r="K103" s="5"/>
       <c r="L103" s="8">
         <f>COUNTA($B$2:B103)/175</f>
@@ -9046,7 +15468,6 @@
       <c r="B104">
         <v>103</v>
       </c>
-      <c r="I104" s="11"/>
       <c r="K104" s="5"/>
       <c r="L104" s="8">
         <f>COUNTA($B$2:B104)/175</f>
@@ -9057,7 +15478,6 @@
       <c r="B105">
         <v>104</v>
       </c>
-      <c r="I105" s="11"/>
       <c r="K105" s="5"/>
       <c r="L105" s="8">
         <f>COUNTA($B$2:B105)/175</f>
@@ -9068,7 +15488,6 @@
       <c r="B106">
         <v>105</v>
       </c>
-      <c r="I106" s="11"/>
       <c r="K106" s="5"/>
       <c r="L106" s="10">
         <f>COUNTA($B$2:B106)/175</f>
@@ -9079,7 +15498,6 @@
       <c r="B107">
         <v>106</v>
       </c>
-      <c r="I107" s="11"/>
       <c r="K107" s="5"/>
       <c r="L107" s="8">
         <f>COUNTA($B$2:B107)/175</f>
@@ -9090,7 +15508,6 @@
       <c r="B108">
         <v>107</v>
       </c>
-      <c r="I108" s="11"/>
       <c r="K108" s="5"/>
       <c r="L108" s="8">
         <f>COUNTA($B$2:B108)/175</f>
@@ -9101,7 +15518,6 @@
       <c r="B109">
         <v>108</v>
       </c>
-      <c r="I109" s="11"/>
       <c r="K109" s="5"/>
       <c r="L109" s="8">
         <f>COUNTA($B$2:B109)/175</f>
@@ -9112,7 +15528,6 @@
       <c r="B110">
         <v>109</v>
       </c>
-      <c r="I110" s="11"/>
       <c r="K110" s="5"/>
       <c r="L110" s="8">
         <f>COUNTA($B$2:B110)/175</f>
@@ -9123,7 +15538,6 @@
       <c r="B111">
         <v>110</v>
       </c>
-      <c r="I111" s="11"/>
       <c r="K111" s="5"/>
       <c r="L111" s="8">
         <f>COUNTA($B$2:B111)/175</f>
@@ -9134,7 +15548,6 @@
       <c r="B112">
         <v>111</v>
       </c>
-      <c r="I112" s="11"/>
       <c r="K112" s="5"/>
       <c r="L112" s="8">
         <f>COUNTA($B$2:B112)/175</f>
@@ -9145,7 +15558,6 @@
       <c r="B113">
         <v>112</v>
       </c>
-      <c r="I113" s="11"/>
       <c r="K113" s="5"/>
       <c r="L113" s="8">
         <f>COUNTA($B$2:B113)/175</f>
@@ -9156,7 +15568,6 @@
       <c r="B114">
         <v>113</v>
       </c>
-      <c r="I114" s="11"/>
       <c r="K114" s="5"/>
       <c r="L114" s="8">
         <f>COUNTA($B$2:B114)/175</f>
@@ -9167,7 +15578,6 @@
       <c r="B115">
         <v>114</v>
       </c>
-      <c r="I115" s="11"/>
       <c r="K115" s="5"/>
       <c r="L115" s="8">
         <f>COUNTA($B$2:B115)/175</f>
@@ -9178,7 +15588,6 @@
       <c r="B116">
         <v>115</v>
       </c>
-      <c r="I116" s="11"/>
       <c r="K116" s="5"/>
       <c r="L116" s="8">
         <f>COUNTA($B$2:B116)/175</f>
@@ -9189,7 +15598,6 @@
       <c r="B117">
         <v>116</v>
       </c>
-      <c r="I117" s="11"/>
       <c r="K117" s="5"/>
       <c r="L117" s="8">
         <f>COUNTA($B$2:B117)/175</f>
@@ -9200,7 +15608,6 @@
       <c r="B118">
         <v>117</v>
       </c>
-      <c r="I118" s="11"/>
       <c r="K118" s="5"/>
       <c r="L118" s="8">
         <f>COUNTA($B$2:B118)/175</f>
@@ -9211,7 +15618,6 @@
       <c r="B119">
         <v>118</v>
       </c>
-      <c r="I119" s="11"/>
       <c r="K119" s="5"/>
       <c r="L119" s="8">
         <f>COUNTA($B$2:B119)/175</f>
@@ -9222,7 +15628,6 @@
       <c r="B120">
         <v>119</v>
       </c>
-      <c r="I120" s="11"/>
       <c r="K120" s="5"/>
       <c r="L120" s="8">
         <f>COUNTA($B$2:B120)/175</f>
@@ -9233,7 +15638,6 @@
       <c r="B121">
         <v>120</v>
       </c>
-      <c r="I121" s="11"/>
       <c r="K121" s="5"/>
       <c r="L121" s="8">
         <f>COUNTA($B$2:B121)/175</f>
@@ -9244,7 +15648,6 @@
       <c r="B122">
         <v>121</v>
       </c>
-      <c r="I122" s="11"/>
       <c r="K122" s="5"/>
       <c r="L122" s="8">
         <f>COUNTA($B$2:B122)/175</f>
@@ -9255,7 +15658,6 @@
       <c r="B123">
         <v>122</v>
       </c>
-      <c r="I123" s="11"/>
       <c r="K123" s="5"/>
       <c r="L123" s="8">
         <f>COUNTA($B$2:B123)/175</f>
@@ -9266,7 +15668,6 @@
       <c r="B124">
         <v>123</v>
       </c>
-      <c r="I124" s="11"/>
       <c r="K124" s="5"/>
       <c r="L124" s="8">
         <f>COUNTA($B$2:B124)/175</f>
@@ -9277,7 +15678,6 @@
       <c r="B125">
         <v>124</v>
       </c>
-      <c r="I125" s="11"/>
       <c r="K125" s="5"/>
       <c r="L125" s="8">
         <f>COUNTA($B$2:B125)/175</f>
@@ -9288,7 +15688,6 @@
       <c r="B126">
         <v>125</v>
       </c>
-      <c r="I126" s="11"/>
       <c r="K126" s="5"/>
       <c r="L126" s="8">
         <f>COUNTA($B$2:B126)/175</f>
@@ -9299,7 +15698,6 @@
       <c r="B127">
         <v>126</v>
       </c>
-      <c r="I127" s="11"/>
       <c r="K127" s="5"/>
       <c r="L127" s="8">
         <f>COUNTA($B$2:B127)/175</f>
@@ -9310,7 +15708,6 @@
       <c r="B128">
         <v>127</v>
       </c>
-      <c r="I128" s="11"/>
       <c r="K128" s="5"/>
       <c r="L128" s="8">
         <f>COUNTA($B$2:B128)/175</f>
@@ -9321,7 +15718,6 @@
       <c r="B129">
         <v>128</v>
       </c>
-      <c r="I129" s="11"/>
       <c r="K129" s="5"/>
       <c r="L129" s="8">
         <f>COUNTA($B$2:B129)/175</f>
@@ -9332,7 +15728,6 @@
       <c r="B130">
         <v>129</v>
       </c>
-      <c r="I130" s="11"/>
       <c r="K130" s="5"/>
       <c r="L130" s="8">
         <f>COUNTA($B$2:B130)/175</f>
@@ -9343,7 +15738,6 @@
       <c r="B131">
         <v>130</v>
       </c>
-      <c r="I131" s="11"/>
       <c r="K131" s="5"/>
       <c r="L131" s="8">
         <f>COUNTA($B$2:B131)/175</f>
@@ -9354,7 +15748,6 @@
       <c r="B132">
         <v>131</v>
       </c>
-      <c r="I132" s="11"/>
       <c r="K132" s="5"/>
       <c r="L132" s="8">
         <f>COUNTA($B$2:B132)/175</f>
@@ -9365,7 +15758,6 @@
       <c r="B133">
         <v>132</v>
       </c>
-      <c r="I133" s="11"/>
       <c r="K133" s="5"/>
       <c r="L133" s="8">
         <f>COUNTA($B$2:B133)/175</f>
@@ -9376,7 +15768,6 @@
       <c r="B134">
         <v>133</v>
       </c>
-      <c r="I134" s="11"/>
       <c r="K134" s="5"/>
       <c r="L134" s="8">
         <f>COUNTA($B$2:B134)/175</f>
@@ -9387,7 +15778,6 @@
       <c r="B135">
         <v>134</v>
       </c>
-      <c r="I135" s="11"/>
       <c r="K135" s="5"/>
       <c r="L135" s="8">
         <f>COUNTA($B$2:B135)/175</f>
@@ -9398,7 +15788,6 @@
       <c r="B136">
         <v>135</v>
       </c>
-      <c r="I136" s="11"/>
       <c r="K136" s="5"/>
       <c r="L136" s="8">
         <f>COUNTA($B$2:B136)/175</f>
@@ -9409,7 +15798,6 @@
       <c r="B137">
         <v>136</v>
       </c>
-      <c r="I137" s="11"/>
       <c r="K137" s="5"/>
       <c r="L137" s="8">
         <f>COUNTA($B$2:B137)/175</f>
@@ -9420,7 +15808,6 @@
       <c r="B138">
         <v>137</v>
       </c>
-      <c r="I138" s="11"/>
       <c r="K138" s="5"/>
       <c r="L138" s="8">
         <f>COUNTA($B$2:B138)/175</f>
@@ -9431,7 +15818,6 @@
       <c r="B139">
         <v>138</v>
       </c>
-      <c r="I139" s="11"/>
       <c r="K139" s="5"/>
       <c r="L139" s="8">
         <f>COUNTA($B$2:B139)/175</f>
@@ -9442,7 +15828,6 @@
       <c r="B140">
         <v>139</v>
       </c>
-      <c r="I140" s="11"/>
       <c r="K140" s="5"/>
       <c r="L140" s="8">
         <f>COUNTA($B$2:B140)/175</f>
@@ -9453,7 +15838,6 @@
       <c r="B141">
         <v>140</v>
       </c>
-      <c r="I141" s="11"/>
       <c r="K141" s="5"/>
       <c r="L141" s="10">
         <f>COUNTA($B$2:B141)/175</f>
@@ -9464,7 +15848,6 @@
       <c r="B142">
         <v>141</v>
       </c>
-      <c r="I142" s="11"/>
       <c r="K142" s="5"/>
       <c r="L142" s="8">
         <f>COUNTA($B$2:B142)/175</f>
@@ -9475,7 +15858,6 @@
       <c r="B143">
         <v>142</v>
       </c>
-      <c r="I143" s="11"/>
       <c r="K143" s="5"/>
       <c r="L143" s="8">
         <f>COUNTA($B$2:B143)/175</f>
@@ -9486,7 +15868,6 @@
       <c r="B144">
         <v>143</v>
       </c>
-      <c r="I144" s="11"/>
       <c r="K144" s="5"/>
       <c r="L144" s="8">
         <f>COUNTA($B$2:B144)/175</f>
@@ -9497,7 +15878,6 @@
       <c r="B145">
         <v>144</v>
       </c>
-      <c r="I145" s="11"/>
       <c r="K145" s="5"/>
       <c r="L145" s="8">
         <f>COUNTA($B$2:B145)/175</f>
@@ -9508,7 +15888,6 @@
       <c r="B146">
         <v>145</v>
       </c>
-      <c r="I146" s="11"/>
       <c r="K146" s="5"/>
       <c r="L146" s="8">
         <f>COUNTA($B$2:B146)/175</f>
@@ -9519,7 +15898,6 @@
       <c r="B147">
         <v>146</v>
       </c>
-      <c r="I147" s="11"/>
       <c r="K147" s="5"/>
       <c r="L147" s="8">
         <f>COUNTA($B$2:B147)/175</f>
@@ -9530,7 +15908,6 @@
       <c r="B148">
         <v>147</v>
       </c>
-      <c r="I148" s="11"/>
       <c r="K148" s="5"/>
       <c r="L148" s="8">
         <f>COUNTA($B$2:B148)/175</f>
@@ -9541,7 +15918,6 @@
       <c r="B149">
         <v>148</v>
       </c>
-      <c r="I149" s="11"/>
       <c r="K149" s="5"/>
       <c r="L149" s="8">
         <f>COUNTA($B$2:B149)/175</f>
@@ -9552,7 +15928,6 @@
       <c r="B150">
         <v>149</v>
       </c>
-      <c r="I150" s="11"/>
       <c r="K150" s="5"/>
       <c r="L150" s="8">
         <f>COUNTA($B$2:B150)/175</f>
@@ -9563,7 +15938,6 @@
       <c r="B151">
         <v>150</v>
       </c>
-      <c r="I151" s="11"/>
       <c r="K151" s="5"/>
       <c r="L151" s="8">
         <f>COUNTA($B$2:B151)/175</f>
@@ -9574,7 +15948,6 @@
       <c r="B152">
         <v>151</v>
       </c>
-      <c r="I152" s="11"/>
       <c r="K152" s="5"/>
       <c r="L152" s="8">
         <f>COUNTA($B$2:B152)/175</f>
@@ -9585,7 +15958,6 @@
       <c r="B153">
         <v>152</v>
       </c>
-      <c r="I153" s="11"/>
       <c r="K153" s="5"/>
       <c r="L153" s="8">
         <f>COUNTA($B$2:B153)/175</f>
@@ -9596,7 +15968,6 @@
       <c r="B154">
         <v>153</v>
       </c>
-      <c r="I154" s="11"/>
       <c r="K154" s="5"/>
       <c r="L154" s="8">
         <f>COUNTA($B$2:B154)/175</f>
@@ -9607,7 +15978,6 @@
       <c r="B155">
         <v>154</v>
       </c>
-      <c r="I155" s="11"/>
       <c r="K155" s="5"/>
       <c r="L155" s="8">
         <f>COUNTA($B$2:B155)/175</f>
@@ -9618,7 +15988,6 @@
       <c r="B156">
         <v>155</v>
       </c>
-      <c r="I156" s="11"/>
       <c r="K156" s="5"/>
       <c r="L156" s="8">
         <f>COUNTA($B$2:B156)/175</f>
@@ -9629,7 +15998,6 @@
       <c r="B157">
         <v>156</v>
       </c>
-      <c r="I157" s="11"/>
       <c r="K157" s="5"/>
       <c r="L157" s="8">
         <f>COUNTA($B$2:B157)/175</f>
@@ -9640,7 +16008,6 @@
       <c r="B158">
         <v>157</v>
       </c>
-      <c r="I158" s="11"/>
       <c r="K158" s="5"/>
       <c r="L158" s="8">
         <f>COUNTA($B$2:B158)/175</f>
@@ -9651,7 +16018,6 @@
       <c r="B159">
         <v>158</v>
       </c>
-      <c r="I159" s="11"/>
       <c r="K159" s="5"/>
       <c r="L159" s="8">
         <f>COUNTA($B$2:B159)/175</f>
@@ -9662,7 +16028,6 @@
       <c r="B160">
         <v>159</v>
       </c>
-      <c r="I160" s="11"/>
       <c r="K160" s="5"/>
       <c r="L160" s="8">
         <f>COUNTA($B$2:B160)/175</f>
@@ -9673,7 +16038,6 @@
       <c r="B161">
         <v>160</v>
       </c>
-      <c r="I161" s="11"/>
       <c r="K161" s="5"/>
       <c r="L161" s="8">
         <f>COUNTA($B$2:B161)/175</f>
@@ -9684,7 +16048,6 @@
       <c r="B162">
         <v>161</v>
       </c>
-      <c r="I162" s="11"/>
       <c r="K162" s="5"/>
       <c r="L162" s="8">
         <f>COUNTA($B$2:B162)/175</f>
@@ -9695,7 +16058,6 @@
       <c r="B163">
         <v>162</v>
       </c>
-      <c r="I163" s="11"/>
       <c r="K163" s="5"/>
       <c r="L163" s="8">
         <f>COUNTA($B$2:B163)/175</f>
@@ -9706,7 +16068,6 @@
       <c r="B164">
         <v>163</v>
       </c>
-      <c r="I164" s="11"/>
       <c r="K164" s="5"/>
       <c r="L164" s="8">
         <f>COUNTA($B$2:B164)/175</f>
@@ -9717,7 +16078,6 @@
       <c r="B165">
         <v>164</v>
       </c>
-      <c r="I165" s="11"/>
       <c r="K165" s="5"/>
       <c r="L165" s="8">
         <f>COUNTA($B$2:B165)/175</f>
@@ -9728,7 +16088,6 @@
       <c r="B166">
         <v>165</v>
       </c>
-      <c r="I166" s="11"/>
       <c r="K166" s="5"/>
       <c r="L166" s="8">
         <f>COUNTA($B$2:B166)/175</f>
@@ -9739,7 +16098,6 @@
       <c r="B167">
         <v>166</v>
       </c>
-      <c r="I167" s="11"/>
       <c r="K167" s="5"/>
       <c r="L167" s="8">
         <f>COUNTA($B$2:B167)/175</f>
@@ -9750,7 +16108,6 @@
       <c r="B168">
         <v>167</v>
       </c>
-      <c r="I168" s="11"/>
       <c r="K168" s="5"/>
       <c r="L168" s="8">
         <f>COUNTA($B$2:B168)/175</f>
@@ -9761,7 +16118,6 @@
       <c r="B169">
         <v>168</v>
       </c>
-      <c r="I169" s="11"/>
       <c r="K169" s="5"/>
       <c r="L169" s="8">
         <f>COUNTA($B$2:B169)/175</f>
@@ -9772,7 +16128,6 @@
       <c r="B170">
         <v>169</v>
       </c>
-      <c r="I170" s="11"/>
       <c r="K170" s="5"/>
       <c r="L170" s="8">
         <f>COUNTA($B$2:B170)/175</f>
@@ -9783,7 +16138,6 @@
       <c r="B171">
         <v>170</v>
       </c>
-      <c r="I171" s="11"/>
       <c r="K171" s="5"/>
       <c r="L171" s="8">
         <f>COUNTA($B$2:B171)/175</f>
@@ -9794,7 +16148,6 @@
       <c r="B172">
         <v>171</v>
       </c>
-      <c r="I172" s="11"/>
       <c r="K172" s="5"/>
       <c r="L172" s="8">
         <f>COUNTA($B$2:B172)/175</f>
@@ -9805,7 +16158,6 @@
       <c r="B173">
         <v>172</v>
       </c>
-      <c r="I173" s="11"/>
       <c r="K173" s="5"/>
       <c r="L173" s="8">
         <f>COUNTA($B$2:B173)/175</f>
@@ -9816,7 +16168,6 @@
       <c r="B174">
         <v>173</v>
       </c>
-      <c r="I174" s="11"/>
       <c r="K174" s="5"/>
       <c r="L174" s="8">
         <f>COUNTA($B$2:B174)/175</f>
@@ -9827,7 +16178,6 @@
       <c r="B175">
         <v>174</v>
       </c>
-      <c r="I175" s="11"/>
       <c r="K175" s="5"/>
       <c r="L175" s="8">
         <f>COUNTA($B$2:B175)/175</f>
@@ -9838,7 +16188,6 @@
       <c r="B176">
         <v>175</v>
       </c>
-      <c r="I176" s="11"/>
       <c r="K176" s="5"/>
       <c r="L176" s="10">
         <f>COUNTA($B$2:B176)/175</f>
@@ -9851,38 +16200,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF32CB5-686D-49A4-85B3-C37F8E51F26C}">
-  <dimension ref="B3:C6"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DDF19-FD3D-41AC-B187-43DEDFD2533C}">
+  <dimension ref="C7:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>439</v>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="H7">
+        <f>I7*G7</f>
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>175</v>
+      </c>
+      <c r="J7">
+        <f>I7-H7</f>
+        <v>133</v>
+      </c>
+      <c r="K7">
+        <f>J7/I7*100%</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="C13" s="19" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="35" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="35" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/question-logs/PMP_Questions - PMBOK 7.xlsx
+++ b/question-logs/PMP_Questions - PMBOK 7.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/142dd5fbcad2da9d/Desktop/PMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\queen\OneDrive\Desktop\PMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{1E13D942-726B-472C-A8BF-EF4A56DC847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1025EAC2-B581-4C32-A1C7-3DB6882655B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{308A411C-D69A-43F2-8387-B16A5DE5CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMI Infinity" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
     <sheet name="David PMP QA" sheetId="1" r:id="rId3"/>
     <sheet name="PMI Study Hall" sheetId="5" r:id="rId4"/>
-    <sheet name="Notes" sheetId="2" r:id="rId5"/>
-    <sheet name="PMI Study Hall Practice Exam" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="PMI Study Hall Practice Exam" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Notes" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="898">
   <si>
     <t>Question</t>
   </si>
@@ -3662,6 +3662,168 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Start-to-Start</t>
+  </si>
+  <si>
+    <t>Finish-to-Start</t>
+  </si>
+  <si>
+    <t>Finish-to-Finish</t>
+  </si>
+  <si>
+    <t>Start-to-Finish</t>
+  </si>
+  <si>
+    <t>A recently assigned project manager is working on detailing out all requirements and estimating each task required to complete the implementation of a healthcare system across three countries. What approach is the project manager using?</t>
+  </si>
+  <si>
+    <t>A. Agile | B. Traditional | C. Steel Thread | D. Rolling Wave</t>
+  </si>
+  <si>
+    <t>B. Traditional</t>
+  </si>
+  <si>
+    <t>Traditional (predictive) projects define full scope and estimates upfront to build the schedule.</t>
+  </si>
+  <si>
+    <t>There are three main work packages. A finishes before C starts, and C starts when B starts. What is the relationship between A and B?</t>
+  </si>
+  <si>
+    <t>A. Finish-to-start | B. Finish-to-finish | C. Start-to-start | D. Start-to-finish</t>
+  </si>
+  <si>
+    <t>A. Finish-to-start</t>
+  </si>
+  <si>
+    <t>Since A must finish before C, and C starts with B, A must finish before B.</t>
+  </si>
+  <si>
+    <t>A hybrid project uses waterfall for requirements and agile for development. The team is unfamiliar with both, causing delays. What should have been done?</t>
+  </si>
+  <si>
+    <t>A. Train team | B. Assign experts | C. Daily standups | D. Change methodology</t>
+  </si>
+  <si>
+    <t>C. Daily standups</t>
+  </si>
+  <si>
+    <t>Daily standups improve communication and reduce uncertainty in hybrid environments.</t>
+  </si>
+  <si>
+    <t>A PM estimates a phase with optimistic 11 days, most likely 20, pessimistic 35. What is the estimated duration?</t>
+  </si>
+  <si>
+    <t>A. 19 | B. 21 | C. 23 | D. 25</t>
+  </si>
+  <si>
+    <t>B. 21 days</t>
+  </si>
+  <si>
+    <t>PERT = (11 + 4×20 + 35) / 6 = 21 days.</t>
+  </si>
+  <si>
+    <t>A supplier change adds 10 days but stakeholder refuses schedule extension. What should the PM do?</t>
+  </si>
+  <si>
+    <t>A. Explain delay | B. Update schedule and review | C. Fast track | D. Restart planning</t>
+  </si>
+  <si>
+    <t>B. Update schedule and review</t>
+  </si>
+  <si>
+    <t>PM should manage expectations and keep project moving with updates.</t>
+  </si>
+  <si>
+    <t>Agile project halfway done: 100 stories at $50, 50 done, $2000 spent. Which is true?</t>
+  </si>
+  <si>
+    <t>A. Over budget/behind | B. Under budget/on schedule | C. On budget/on schedule | D. Under budget/ahead</t>
+  </si>
+  <si>
+    <t>B. Under budget and on schedule</t>
+  </si>
+  <si>
+    <t>EV=2500, PV=2500, AC=2000 → SPI=1, CPI=1.25.</t>
+  </si>
+  <si>
+    <t>Planning Poker is used to estimate missed integration work. Who makes the estimate?</t>
+  </si>
+  <si>
+    <t>A. Project team | B. Scrum Master | C. Product owner | D. Stakeholders</t>
+  </si>
+  <si>
+    <t>A. Project team</t>
+  </si>
+  <si>
+    <t>In Agile, estimates are created by the team doing the work.</t>
+  </si>
+  <si>
+    <t>In order to identify and assess the hindering and enabling factors that may affect project delivery as a result of the organization's specific environment, a project manager undertakes an environmental scan. Which of the following combinations represents some of the factors that will be considered in this scan?</t>
+  </si>
+  <si>
+    <t>A. Laws and regulations, market trends, and new technology
+B. Published research, articles, and journals
+C. Seminars, exhibitions, and upcoming conferences
+D. New technology, seminars, and webinars</t>
+  </si>
+  <si>
+    <t>Environmental scanning examines external factors using frameworks such as PESTLE.</t>
+  </si>
+  <si>
+    <t>During the design process for a multinational construction project, the project manager conducted a cost-benefit analysis based on current foreign exchange rates. The exchange rate has fallen significantly. What should the project manager do as a proactive action?</t>
+  </si>
+  <si>
+    <t>A. Update the risk management plan
+B. Escalate the issue to the project sponsor
+C. Submit a budget increase change request
+D. Conduct a new cost-benefit analysis</t>
+  </si>
+  <si>
+    <t>A new cost-benefit analysis quantifies the impact of exchange rate changes before escalation.</t>
+  </si>
+  <si>
+    <t>A company is using a predictive approach for the development of a component. Due to changing regulatory requirements, the team requests agile approaches. What should the project manager do?</t>
+  </si>
+  <si>
+    <t>A. Escalate request for funding
+B. Analyze requirements under requested method
+C. Forward request to PMO
+D. Ask sponsor for approval</t>
+  </si>
+  <si>
+    <t>Hybrid scenario—analyze requirements before approvals or escalation.</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>A meeting is scheduled to discuss what went well, what did not, and plan improvements for future iterations. Which meeting is described?</t>
+  </si>
+  <si>
+    <t>A. Iteration planning
+B. Retrospective
+C. Daily stand-up
+D. Backlog refinement</t>
+  </si>
+  <si>
+    <t>Retrospectives focus on lessons learned and improvement actions.</t>
+  </si>
+  <si>
+    <t>A stakeholder asks why iteration reviews are held so frequently in a hybrid project. How should the project manager respond?</t>
+  </si>
+  <si>
+    <t>A. Explain benefits of frequent reviews
+B. Reduce attendance
+C. Enforce engagement plan
+D. Escalate to sponsor</t>
+  </si>
+  <si>
+    <t>Frequent reviews increase value and reduce rework in hybrid/agile projects.</t>
+  </si>
 </sst>
 </file>
 
@@ -3670,11 +3832,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3802,79 +3971,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
@@ -3882,6 +4054,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E1208F1A-016B-4B60-9C43-D432B44EE57F}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{7118966E-D340-4D9E-8D7E-C5AACAAD24AC}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{57D0C38B-470C-4C22-B4AB-58090F605A73}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4103,18 +4276,18 @@
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.81640625" customWidth="1"/>
-    <col min="3" max="3" width="52.26953125" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" style="8"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -4152,7 +4325,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4185,7 +4358,7 @@
         <v>45999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4212,7 +4385,7 @@
         <v>1.1428571428571429E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4239,7 +4412,7 @@
         <v>1.7142857142857144E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4266,7 +4439,7 @@
         <v>2.2857142857142857E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4293,7 +4466,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4320,7 +4493,7 @@
         <v>3.4285714285714287E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4347,7 +4520,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4374,7 +4547,7 @@
         <v>4.5714285714285714E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4401,7 +4574,7 @@
         <v>5.1428571428571428E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4428,7 +4601,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4455,7 +4628,7 @@
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4488,7 +4661,7 @@
         <v>6.8571428571428575E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4518,7 +4691,7 @@
         <v>7.4285714285714288E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4545,7 +4718,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4572,7 +4745,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4599,7 +4772,7 @@
         <v>9.1428571428571428E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4626,7 +4799,7 @@
         <v>9.7142857142857142E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4653,7 +4826,7 @@
         <v>0.10285714285714286</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4680,7 +4853,7 @@
         <v>0.10857142857142857</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4707,7 +4880,7 @@
         <v>0.11428571428571428</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4734,7 +4907,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4761,7 +4934,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4788,7 +4961,7 @@
         <v>0.13142857142857142</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4815,7 +4988,7 @@
         <v>0.13714285714285715</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4842,7 +5015,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4872,7 +5045,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4899,7 +5072,7 @@
         <v>0.15428571428571428</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4926,7 +5099,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4953,7 +5126,7 @@
         <v>0.1657142857142857</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4980,7 +5153,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5007,7 +5180,7 @@
         <v>0.17714285714285713</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5034,7 +5207,7 @@
         <v>0.18285714285714286</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5061,7 +5234,7 @@
         <v>0.18857142857142858</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5086,7 +5259,7 @@
         <v>0.19428571428571428</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5113,7 +5286,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5143,7 +5316,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5173,7 +5346,7 @@
         <v>0.21142857142857144</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5203,7 +5376,7 @@
         <v>0.21714285714285714</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5230,7 +5403,7 @@
         <v>0.22285714285714286</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5257,7 +5430,7 @@
         <v>0.22857142857142856</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5284,7 +5457,7 @@
         <v>0.23428571428571429</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5317,7 +5490,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5344,7 +5517,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5371,7 +5544,7 @@
         <v>0.25142857142857145</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5396,7 +5569,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5424,7 +5597,7 @@
         <v>0.26285714285714284</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5457,7 +5630,7 @@
         <v>0.26857142857142857</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5484,7 +5657,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5511,7 +5684,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5538,7 +5711,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5565,7 +5738,7 @@
         <v>0.29142857142857143</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5592,7 +5765,7 @@
         <v>0.29714285714285715</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5619,7 +5792,7 @@
         <v>0.30285714285714288</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5646,7 +5819,7 @@
         <v>0.30857142857142855</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5673,7 +5846,7 @@
         <v>0.31428571428571428</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5700,7 +5873,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5727,7 +5900,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5754,7 +5927,7 @@
         <v>0.33142857142857141</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5782,7 +5955,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5809,7 +5982,7 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5836,7 +6009,7 @@
         <v>0.34857142857142859</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5863,7 +6036,7 @@
         <v>0.35428571428571426</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5890,7 +6063,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5917,7 +6090,7 @@
         <v>0.36571428571428571</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5947,7 +6120,7 @@
         <v>0.37142857142857144</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5974,7 +6147,7 @@
         <v>0.37714285714285717</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6001,7 +6174,7 @@
         <v>0.38285714285714284</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6028,7 +6201,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6055,7 +6228,7 @@
         <v>0.39428571428571429</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6082,7 +6255,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6094,7 +6267,7 @@
         <v>0.40571428571428569</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6106,7 +6279,7 @@
         <v>0.41142857142857142</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6118,7 +6291,7 @@
         <v>0.41714285714285715</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6130,7 +6303,7 @@
         <v>0.42285714285714288</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6142,7 +6315,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6154,7 +6327,7 @@
         <v>0.43428571428571427</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6166,7 +6339,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6178,7 +6351,7 @@
         <v>0.44571428571428573</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6190,7 +6363,7 @@
         <v>0.4514285714285714</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6202,7 +6375,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6214,7 +6387,7 @@
         <v>0.46285714285714286</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6226,7 +6399,7 @@
         <v>0.46857142857142858</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6238,7 +6411,7 @@
         <v>0.47428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6250,7 +6423,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6262,7 +6435,7 @@
         <v>0.48571428571428571</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6274,7 +6447,7 @@
         <v>0.49142857142857144</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6286,7 +6459,7 @@
         <v>0.49714285714285716</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6298,7 +6471,7 @@
         <v>0.50285714285714289</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6310,7 +6483,7 @@
         <v>0.50857142857142856</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6322,7 +6495,7 @@
         <v>0.51428571428571423</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6334,7 +6507,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6346,7 +6519,7 @@
         <v>0.52571428571428569</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6358,7 +6531,7 @@
         <v>0.53142857142857147</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6370,7 +6543,7 @@
         <v>0.53714285714285714</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6382,7 +6555,7 @@
         <v>0.54285714285714282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6394,7 +6567,7 @@
         <v>0.5485714285714286</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6406,7 +6579,7 @@
         <v>0.55428571428571427</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6418,7 +6591,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6430,7 +6603,7 @@
         <v>0.56571428571428573</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6442,7 +6615,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6454,7 +6627,7 @@
         <v>0.57714285714285718</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6466,7 +6639,7 @@
         <v>0.58285714285714285</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6478,7 +6651,7 @@
         <v>0.58857142857142852</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6490,7 +6663,7 @@
         <v>0.59428571428571431</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6502,7 +6675,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6514,7 +6687,7 @@
         <v>0.60571428571428576</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6526,7 +6699,7 @@
         <v>0.61142857142857143</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6538,7 +6711,7 @@
         <v>0.6171428571428571</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6550,7 +6723,7 @@
         <v>0.62285714285714289</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6562,7 +6735,7 @@
         <v>0.62857142857142856</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6574,7 +6747,7 @@
         <v>0.63428571428571423</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6586,7 +6759,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6598,7 +6771,7 @@
         <v>0.64571428571428569</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6610,7 +6783,7 @@
         <v>0.65142857142857147</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6622,7 +6795,7 @@
         <v>0.65714285714285714</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6634,7 +6807,7 @@
         <v>0.66285714285714281</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6646,7 +6819,7 @@
         <v>0.66857142857142859</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6658,7 +6831,7 @@
         <v>0.67428571428571427</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6670,7 +6843,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6682,7 +6855,7 @@
         <v>0.68571428571428572</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6694,7 +6867,7 @@
         <v>0.69142857142857139</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6706,7 +6879,7 @@
         <v>0.69714285714285718</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6718,7 +6891,7 @@
         <v>0.70285714285714285</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6730,7 +6903,7 @@
         <v>0.70857142857142852</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6742,7 +6915,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6754,7 +6927,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6766,7 +6939,7 @@
         <v>0.72571428571428576</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6778,7 +6951,7 @@
         <v>0.73142857142857143</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6790,7 +6963,7 @@
         <v>0.7371428571428571</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6802,7 +6975,7 @@
         <v>0.74285714285714288</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6814,7 +6987,7 @@
         <v>0.74857142857142855</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6826,7 +6999,7 @@
         <v>0.75428571428571434</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6838,7 +7011,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6850,7 +7023,7 @@
         <v>0.76571428571428568</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6862,7 +7035,7 @@
         <v>0.77142857142857146</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6874,7 +7047,7 @@
         <v>0.77714285714285714</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6886,7 +7059,7 @@
         <v>0.78285714285714281</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6898,7 +7071,7 @@
         <v>0.78857142857142859</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6910,7 +7083,7 @@
         <v>0.79428571428571426</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6922,7 +7095,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6934,7 +7107,7 @@
         <v>0.80571428571428572</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6946,7 +7119,7 @@
         <v>0.81142857142857139</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6958,7 +7131,7 @@
         <v>0.81714285714285717</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6970,7 +7143,7 @@
         <v>0.82285714285714284</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6982,7 +7155,7 @@
         <v>0.82857142857142863</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6994,7 +7167,7 @@
         <v>0.8342857142857143</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7006,7 +7179,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7018,7 +7191,7 @@
         <v>0.84571428571428575</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7030,7 +7203,7 @@
         <v>0.85142857142857142</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7042,7 +7215,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7054,7 +7227,7 @@
         <v>0.86285714285714288</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7066,7 +7239,7 @@
         <v>0.86857142857142855</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7078,7 +7251,7 @@
         <v>0.87428571428571433</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7090,7 +7263,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7102,7 +7275,7 @@
         <v>0.88571428571428568</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7114,7 +7287,7 @@
         <v>0.89142857142857146</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7126,7 +7299,7 @@
         <v>0.89714285714285713</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7138,7 +7311,7 @@
         <v>0.9028571428571428</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7150,7 +7323,7 @@
         <v>0.90857142857142859</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7162,7 +7335,7 @@
         <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7174,7 +7347,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7186,7 +7359,7 @@
         <v>0.92571428571428571</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7198,7 +7371,7 @@
         <v>0.93142857142857138</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7210,7 +7383,7 @@
         <v>0.93714285714285717</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7222,7 +7395,7 @@
         <v>0.94285714285714284</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7234,7 +7407,7 @@
         <v>0.94857142857142862</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7246,7 +7419,7 @@
         <v>0.95428571428571429</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7258,7 +7431,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7270,7 +7443,7 @@
         <v>0.96571428571428575</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7282,7 +7455,7 @@
         <v>0.97142857142857142</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7294,7 +7467,7 @@
         <v>0.97714285714285709</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7306,7 +7479,7 @@
         <v>0.98285714285714287</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7318,7 +7491,7 @@
         <v>0.98857142857142855</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7330,7 +7503,7 @@
         <v>0.99428571428571433</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7352,18 +7525,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AB85DB-C902-49CE-948B-BDA0157E2AD0}">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="121" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
         <v>163</v>
       </c>
@@ -7374,7 +7547,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -7385,7 +7558,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -7396,7 +7569,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -7407,7 +7580,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -7418,7 +7591,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -7429,7 +7602,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -7440,7 +7613,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -7451,7 +7624,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
@@ -7462,7 +7635,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -7473,7 +7646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -7484,7 +7657,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -7495,47 +7668,62 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -7543,7 +7731,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -7551,7 +7739,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -7559,7 +7747,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -7567,7 +7755,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -7575,7 +7763,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -7583,7 +7771,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
@@ -7591,7 +7779,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>24</v>
       </c>
@@ -7599,7 +7787,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>25</v>
       </c>
@@ -7607,7 +7795,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
@@ -7615,7 +7803,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
@@ -7623,7 +7811,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>28</v>
       </c>
@@ -7631,7 +7819,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>29</v>
       </c>
@@ -7686,12 +7874,12 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -7726,7 +7914,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7743,7 +7931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7760,7 +7948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7777,7 +7965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7794,7 +7982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7811,7 +7999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7828,7 +8016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7845,7 +8033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7862,7 +8050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7879,7 +8067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7896,7 +8084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7913,7 +8101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7930,7 +8118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7947,7 +8135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7964,7 +8152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7981,7 +8169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7998,7 +8186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8015,7 +8203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8032,7 +8220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8049,7 +8237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8066,7 +8254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8083,7 +8271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8100,7 +8288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8117,7 +8305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8134,7 +8322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8151,7 +8339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8168,7 +8356,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8185,7 +8373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8202,7 +8390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8219,7 +8407,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8236,7 +8424,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8253,7 +8441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8270,7 +8458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8287,7 +8475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8304,7 +8492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8324,7 +8512,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8341,7 +8529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8361,7 +8549,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8378,7 +8566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8395,7 +8583,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8415,7 +8603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8435,7 +8623,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8452,7 +8640,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8469,7 +8657,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8486,7 +8674,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8503,7 +8691,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8520,7 +8708,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8540,7 +8728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8557,7 +8745,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8574,7 +8762,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8594,542 +8782,542 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9147,28 +9335,28 @@
   </sheetPr>
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C123" sqref="C122:C123"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.54296875" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.08984375" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" style="8"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>163</v>
       </c>
@@ -9210,7 +9398,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9245,7 +9433,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9278,7 +9466,7 @@
         <v>1.1428571428571429E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9311,7 +9499,7 @@
         <v>1.7142857142857144E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9351,7 +9539,7 @@
         <v>2.2857142857142857E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9384,7 +9572,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9417,7 +9605,7 @@
         <v>3.4285714285714287E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9453,7 +9641,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9486,7 +9674,7 @@
         <v>4.5714285714285714E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9522,7 +9710,7 @@
         <v>5.1428571428571428E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9555,7 +9743,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9588,7 +9776,7 @@
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9626,7 +9814,7 @@
         <v>6.8571428571428575E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9661,7 +9849,7 @@
         <v>7.4285714285714288E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -9694,7 +9882,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -9727,7 +9915,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -9763,7 +9951,7 @@
         <v>9.1428571428571428E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
@@ -9800,7 +9988,7 @@
         <v>9.7142857142857142E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -9833,7 +10021,7 @@
         <v>0.10285714285714286</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9870,7 +10058,7 @@
         <v>0.10857142857142857</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -9903,7 +10091,7 @@
         <v>0.11428571428571428</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -9939,7 +10127,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9972,7 +10160,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -10005,7 +10193,7 @@
         <v>0.13142857142857142</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>24</v>
       </c>
@@ -10037,7 +10225,7 @@
         <v>0.13714285714285715</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>25</v>
       </c>
@@ -10069,7 +10257,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>26</v>
       </c>
@@ -10105,7 +10293,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>27</v>
       </c>
@@ -10137,7 +10325,7 @@
         <v>0.15428571428571428</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>28</v>
       </c>
@@ -10169,7 +10357,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>29</v>
       </c>
@@ -10203,7 +10391,7 @@
         <v>0.1657142857142857</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>30</v>
       </c>
@@ -10235,7 +10423,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>31</v>
       </c>
@@ -10271,7 +10459,7 @@
         <v>0.17714285714285713</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>32</v>
       </c>
@@ -10303,7 +10491,7 @@
         <v>0.18285714285714286</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>33</v>
       </c>
@@ -10335,7 +10523,7 @@
         <v>0.18857142857142858</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -10369,7 +10557,7 @@
         <v>0.19428571428571428</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -10403,7 +10591,7 @@
         <v>0.13714285714285715</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -10438,7 +10626,7 @@
       </c>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -10472,7 +10660,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -10506,7 +10694,7 @@
         <v>0.15428571428571428</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>6</v>
       </c>
@@ -10540,7 +10728,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7</v>
       </c>
@@ -10574,7 +10762,7 @@
         <v>0.1657142857142857</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>8</v>
       </c>
@@ -10610,7 +10798,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9</v>
       </c>
@@ -10644,7 +10832,7 @@
       </c>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10</v>
       </c>
@@ -10677,7 +10865,7 @@
         <v>0.18285714285714286</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>11</v>
       </c>
@@ -10710,7 +10898,7 @@
         <v>0.18857142857142858</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -10743,7 +10931,7 @@
         <v>0.19428571428571428</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -10776,7 +10964,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -10809,7 +10997,7 @@
         <v>0.20571428571428571</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -10842,7 +11030,7 @@
         <v>0.21142857142857144</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -10875,7 +11063,7 @@
         <v>0.21714285714285714</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6</v>
       </c>
@@ -10908,7 +11096,7 @@
         <v>0.22285714285714286</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7</v>
       </c>
@@ -10941,7 +11129,7 @@
         <v>0.22857142857142856</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8</v>
       </c>
@@ -10977,7 +11165,7 @@
         <v>0.23428571428571429</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9</v>
       </c>
@@ -11010,7 +11198,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10</v>
       </c>
@@ -11043,7 +11231,7 @@
         <v>0.30857142857142855</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>11</v>
       </c>
@@ -11076,7 +11264,7 @@
         <v>0.31428571428571428</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -11109,7 +11297,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -11145,7 +11333,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -11178,7 +11366,7 @@
         <v>0.33142857142857141</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4</v>
       </c>
@@ -11212,7 +11400,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5</v>
       </c>
@@ -11249,7 +11437,7 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -11282,7 +11470,7 @@
         <v>0.34857142857142859</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7</v>
       </c>
@@ -11315,7 +11503,7 @@
         <v>0.35428571428571426</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8</v>
       </c>
@@ -11348,7 +11536,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>9</v>
       </c>
@@ -11381,7 +11569,7 @@
         <v>0.36571428571428571</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10</v>
       </c>
@@ -11415,7 +11603,7 @@
         <v>0.37142857142857144</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -11448,7 +11636,7 @@
         <v>0.37714285714285717</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
@@ -11484,7 +11672,7 @@
         <v>0.38285714285714284</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -11520,7 +11708,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4</v>
       </c>
@@ -11556,7 +11744,7 @@
         <v>0.39428571428571429</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5</v>
       </c>
@@ -11590,7 +11778,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6</v>
       </c>
@@ -11626,7 +11814,7 @@
         <v>0.40571428571428569</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -11665,7 +11853,7 @@
         <v>0.41142857142857142</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -11704,7 +11892,7 @@
         <v>0.41714285714285715</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -11740,7 +11928,7 @@
         <v>0.42285714285714288</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -11776,7 +11964,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5</v>
       </c>
@@ -11809,7 +11997,7 @@
         <v>0.43428571428571427</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -11845,7 +12033,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
@@ -11881,7 +12069,7 @@
         <v>0.44571428571428573</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -11917,7 +12105,7 @@
         <v>0.4514285714285714</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -11953,7 +12141,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5</v>
       </c>
@@ -11992,7 +12180,7 @@
         <v>0.46285714285714286</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6</v>
       </c>
@@ -12028,7 +12216,7 @@
         <v>0.46857142857142858</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>7</v>
       </c>
@@ -12064,7 +12252,7 @@
         <v>0.47428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8</v>
       </c>
@@ -12097,7 +12285,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -12133,7 +12321,7 @@
         <v>0.48571428571428571</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
@@ -12166,7 +12354,7 @@
         <v>0.49142857142857144</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3</v>
       </c>
@@ -12199,7 +12387,7 @@
         <v>0.49714285714285716</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -12232,7 +12420,7 @@
         <v>0.50285714285714289</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5</v>
       </c>
@@ -12265,7 +12453,7 @@
         <v>0.50857142857142856</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6</v>
       </c>
@@ -12301,7 +12489,7 @@
         <v>0.51428571428571423</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>7</v>
       </c>
@@ -12334,7 +12522,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -12370,7 +12558,7 @@
         <v>0.52571428571428569</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2</v>
       </c>
@@ -12403,7 +12591,7 @@
         <v>0.53142857142857147</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3</v>
       </c>
@@ -12439,7 +12627,7 @@
         <v>0.53714285714285714</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -12472,7 +12660,7 @@
         <v>0.54285714285714282</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5</v>
       </c>
@@ -12505,7 +12693,7 @@
         <v>0.5485714285714286</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>6</v>
       </c>
@@ -12538,7 +12726,7 @@
         <v>0.55428571428571427</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>7</v>
       </c>
@@ -12571,7 +12759,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -12607,7 +12795,7 @@
         <v>0.56571428571428573</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9</v>
       </c>
@@ -12640,7 +12828,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10</v>
       </c>
@@ -12673,7 +12861,7 @@
         <v>0.57714285714285718</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>11</v>
       </c>
@@ -12706,7 +12894,7 @@
         <v>0.58285714285714285</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>12</v>
       </c>
@@ -12739,7 +12927,7 @@
         <v>0.58857142857142852</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>13</v>
       </c>
@@ -12772,12 +12960,30 @@
         <v>0.59428571428571431</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
       <c r="B106">
         <v>105</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>854</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>855</v>
+      </c>
+      <c r="E106" s="41" t="s">
+        <v>856</v>
+      </c>
+      <c r="F106" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="J106" s="11" t="s">
         <v>784</v>
@@ -12790,12 +12996,30 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2</v>
       </c>
       <c r="B107">
         <v>106</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="D107" s="41" t="s">
+        <v>859</v>
+      </c>
+      <c r="E107" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="F107" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="G107" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="J107" s="11" t="s">
         <v>784</v>
@@ -12808,12 +13032,27 @@
         <v>0.60571428571428576</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
       <c r="B108">
         <v>107</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>862</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>863</v>
+      </c>
+      <c r="E108" s="41" t="s">
+        <v>864</v>
+      </c>
+      <c r="F108" s="41" t="s">
+        <v>865</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>733</v>
       </c>
       <c r="J108" s="11" t="s">
         <v>784</v>
@@ -12826,12 +13065,30 @@
         <v>0.61142857142857143</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4</v>
       </c>
       <c r="B109">
         <v>108</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>866</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>867</v>
+      </c>
+      <c r="E109" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="F109" s="41" t="s">
+        <v>869</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="J109" s="11" t="s">
         <v>784</v>
@@ -12844,12 +13101,30 @@
         <v>0.6171428571428571</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110">
         <v>109</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>870</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>871</v>
+      </c>
+      <c r="E110" s="41" t="s">
+        <v>872</v>
+      </c>
+      <c r="F110" s="41" t="s">
+        <v>873</v>
+      </c>
+      <c r="G110" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="J110" s="11" t="s">
         <v>784</v>
@@ -12862,12 +13137,30 @@
         <v>0.62285714285714289</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6</v>
       </c>
       <c r="B111">
         <v>110</v>
+      </c>
+      <c r="C111" s="41" t="s">
+        <v>874</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>875</v>
+      </c>
+      <c r="E111" s="41" t="s">
+        <v>876</v>
+      </c>
+      <c r="F111" s="41" t="s">
+        <v>877</v>
+      </c>
+      <c r="G111" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="J111" s="11" t="s">
         <v>784</v>
@@ -12880,12 +13173,30 @@
         <v>0.62857142857142856</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>7</v>
       </c>
       <c r="B112">
         <v>111</v>
+      </c>
+      <c r="C112" s="41" t="s">
+        <v>878</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>879</v>
+      </c>
+      <c r="E112" s="41" t="s">
+        <v>880</v>
+      </c>
+      <c r="F112" s="41" t="s">
+        <v>881</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="J112" s="11" t="s">
         <v>784</v>
@@ -12898,435 +13209,651 @@
         <v>0.63428571428571423</v>
       </c>
     </row>
-    <row r="113" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1</v>
+      </c>
       <c r="B113">
         <v>112</v>
       </c>
-      <c r="L113" s="5"/>
+      <c r="C113" s="42" t="s">
+        <v>882</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>883</v>
+      </c>
+      <c r="E113" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="42" t="s">
+        <v>884</v>
+      </c>
+      <c r="G113" s="42" t="s">
+        <v>733</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M113" s="8">
         <f>COUNTA($B$2:B113)/175</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="114" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2</v>
+      </c>
       <c r="B114">
         <v>113</v>
       </c>
-      <c r="J114" s="11"/>
-      <c r="L114" s="5"/>
+      <c r="C114" s="42" t="s">
+        <v>885</v>
+      </c>
+      <c r="D114" s="42" t="s">
+        <v>886</v>
+      </c>
+      <c r="E114" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="42" t="s">
+        <v>887</v>
+      </c>
+      <c r="G114" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M114" s="8">
         <f>COUNTA($B$2:B114)/175</f>
         <v>0.64571428571428569</v>
       </c>
     </row>
-    <row r="115" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>3</v>
+      </c>
       <c r="B115">
         <v>114</v>
       </c>
-      <c r="J115" s="11"/>
-      <c r="L115" s="5"/>
+      <c r="C115" s="42" t="s">
+        <v>888</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>889</v>
+      </c>
+      <c r="E115" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="42" t="s">
+        <v>890</v>
+      </c>
+      <c r="G115" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M115" s="8">
         <f>COUNTA($B$2:B115)/175</f>
         <v>0.65142857142857147</v>
       </c>
     </row>
-    <row r="116" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>4</v>
+      </c>
       <c r="B116">
         <v>115</v>
       </c>
-      <c r="J116" s="11"/>
-      <c r="L116" s="5"/>
+      <c r="C116" s="42" t="s">
+        <v>892</v>
+      </c>
+      <c r="D116" s="42" t="s">
+        <v>893</v>
+      </c>
+      <c r="E116" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="42" t="s">
+        <v>894</v>
+      </c>
+      <c r="G116" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M116" s="8">
         <f>COUNTA($B$2:B116)/175</f>
         <v>0.65714285714285714</v>
       </c>
     </row>
-    <row r="117" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
       <c r="B117">
         <v>116</v>
       </c>
-      <c r="J117" s="11"/>
-      <c r="L117" s="5"/>
+      <c r="C117" s="42" t="s">
+        <v>895</v>
+      </c>
+      <c r="D117" s="42" t="s">
+        <v>896</v>
+      </c>
+      <c r="E117" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="42" t="s">
+        <v>897</v>
+      </c>
+      <c r="G117" s="42" t="s">
+        <v>733</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M117" s="8">
         <f>COUNTA($B$2:B117)/175</f>
         <v>0.66285714285714281</v>
       </c>
     </row>
-    <row r="118" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
       <c r="B118">
         <v>117</v>
       </c>
+      <c r="G118" s="41"/>
       <c r="J118" s="11"/>
-      <c r="L118" s="5"/>
+      <c r="L118" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M118" s="8">
         <f>COUNTA($B$2:B118)/175</f>
         <v>0.66857142857142859</v>
       </c>
     </row>
-    <row r="119" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2</v>
+      </c>
       <c r="B119">
         <v>118</v>
       </c>
+      <c r="G119" s="41"/>
       <c r="J119" s="11"/>
-      <c r="L119" s="5"/>
+      <c r="L119" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M119" s="8">
         <f>COUNTA($B$2:B119)/175</f>
         <v>0.67428571428571427</v>
       </c>
     </row>
-    <row r="120" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>3</v>
+      </c>
       <c r="B120">
         <v>119</v>
       </c>
+      <c r="G120" s="42"/>
       <c r="J120" s="11"/>
-      <c r="L120" s="5"/>
+      <c r="L120" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M120" s="8">
         <f>COUNTA($B$2:B120)/175</f>
         <v>0.68</v>
       </c>
     </row>
-    <row r="121" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>4</v>
+      </c>
       <c r="B121">
         <v>120</v>
       </c>
+      <c r="G121" s="42"/>
       <c r="J121" s="11"/>
-      <c r="L121" s="5"/>
+      <c r="L121" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M121" s="8">
         <f>COUNTA($B$2:B121)/175</f>
         <v>0.68571428571428572</v>
       </c>
     </row>
-    <row r="122" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>5</v>
+      </c>
       <c r="B122">
         <v>121</v>
       </c>
+      <c r="G122" s="42"/>
       <c r="J122" s="11"/>
-      <c r="L122" s="5"/>
+      <c r="L122" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M122" s="8">
         <f>COUNTA($B$2:B122)/175</f>
         <v>0.69142857142857139</v>
       </c>
     </row>
-    <row r="123" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>6</v>
+      </c>
       <c r="B123">
         <v>122</v>
       </c>
+      <c r="G123" s="42"/>
       <c r="J123" s="11"/>
-      <c r="L123" s="5"/>
+      <c r="L123" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M123" s="8">
         <f>COUNTA($B$2:B123)/175</f>
         <v>0.69714285714285718</v>
       </c>
     </row>
-    <row r="124" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>7</v>
+      </c>
       <c r="B124">
         <v>123</v>
       </c>
+      <c r="G124" s="42"/>
       <c r="J124" s="11"/>
-      <c r="L124" s="5"/>
+      <c r="L124" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M124" s="8">
         <f>COUNTA($B$2:B124)/175</f>
         <v>0.70285714285714285</v>
       </c>
     </row>
-    <row r="125" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>8</v>
+      </c>
       <c r="B125">
         <v>124</v>
       </c>
       <c r="J125" s="11"/>
-      <c r="L125" s="5"/>
+      <c r="L125" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M125" s="8">
         <f>COUNTA($B$2:B125)/175</f>
         <v>0.70857142857142852</v>
       </c>
     </row>
-    <row r="126" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>9</v>
+      </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="J126" s="11"/>
-      <c r="L126" s="5"/>
+      <c r="L126" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M126" s="8">
         <f>COUNTA($B$2:B126)/175</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="127" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>126</v>
       </c>
       <c r="J127" s="11"/>
-      <c r="L127" s="5"/>
+      <c r="L127" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M127" s="8">
         <f>COUNTA($B$2:B127)/175</f>
         <v>0.72</v>
       </c>
     </row>
-    <row r="128" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>127</v>
       </c>
       <c r="J128" s="11"/>
-      <c r="L128" s="5"/>
+      <c r="L128" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M128" s="8">
         <f>COUNTA($B$2:B128)/175</f>
         <v>0.72571428571428576</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>128</v>
       </c>
       <c r="J129" s="11"/>
-      <c r="L129" s="5"/>
+      <c r="L129" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M129" s="8">
         <f>COUNTA($B$2:B129)/175</f>
         <v>0.73142857142857143</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>129</v>
       </c>
       <c r="J130" s="11"/>
-      <c r="L130" s="5"/>
+      <c r="L130" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M130" s="8">
         <f>COUNTA($B$2:B130)/175</f>
         <v>0.7371428571428571</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>130</v>
       </c>
       <c r="J131" s="11"/>
-      <c r="L131" s="5"/>
+      <c r="L131" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M131" s="8">
         <f>COUNTA($B$2:B131)/175</f>
         <v>0.74285714285714288</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>131</v>
       </c>
       <c r="J132" s="11"/>
-      <c r="L132" s="5"/>
+      <c r="L132" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M132" s="8">
         <f>COUNTA($B$2:B132)/175</f>
         <v>0.74857142857142855</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>132</v>
       </c>
       <c r="J133" s="11"/>
-      <c r="L133" s="5"/>
+      <c r="L133" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M133" s="8">
         <f>COUNTA($B$2:B133)/175</f>
         <v>0.75428571428571434</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>133</v>
       </c>
       <c r="J134" s="11"/>
-      <c r="L134" s="5"/>
+      <c r="L134" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M134" s="8">
         <f>COUNTA($B$2:B134)/175</f>
         <v>0.76</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>134</v>
       </c>
       <c r="J135" s="11"/>
-      <c r="L135" s="5"/>
+      <c r="L135" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M135" s="8">
         <f>COUNTA($B$2:B135)/175</f>
         <v>0.76571428571428568</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>135</v>
       </c>
       <c r="J136" s="11"/>
-      <c r="L136" s="5"/>
+      <c r="L136" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M136" s="8">
         <f>COUNTA($B$2:B136)/175</f>
         <v>0.77142857142857146</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>136</v>
       </c>
       <c r="J137" s="11"/>
-      <c r="L137" s="5"/>
+      <c r="L137" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M137" s="8">
         <f>COUNTA($B$2:B137)/175</f>
         <v>0.77714285714285714</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>137</v>
       </c>
       <c r="J138" s="11"/>
-      <c r="L138" s="5"/>
+      <c r="L138" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M138" s="8">
         <f>COUNTA($B$2:B138)/175</f>
         <v>0.78285714285714281</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>138</v>
       </c>
       <c r="J139" s="11"/>
-      <c r="L139" s="5"/>
+      <c r="L139" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M139" s="8">
         <f>COUNTA($B$2:B139)/175</f>
         <v>0.78857142857142859</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>139</v>
       </c>
       <c r="J140" s="11"/>
-      <c r="L140" s="5"/>
+      <c r="L140" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M140" s="8">
         <f>COUNTA($B$2:B140)/175</f>
         <v>0.79428571428571426</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>140</v>
       </c>
       <c r="J141" s="11"/>
-      <c r="L141" s="5"/>
+      <c r="L141" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M141" s="10">
         <f>COUNTA($B$2:B141)/175</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>141</v>
       </c>
       <c r="J142" s="11"/>
-      <c r="L142" s="5"/>
+      <c r="L142" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M142" s="8">
         <f>COUNTA($B$2:B142)/175</f>
         <v>0.80571428571428572</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>142</v>
       </c>
       <c r="J143" s="11"/>
-      <c r="L143" s="5"/>
+      <c r="L143" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M143" s="8">
         <f>COUNTA($B$2:B143)/175</f>
         <v>0.81142857142857139</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>143</v>
       </c>
       <c r="J144" s="11"/>
-      <c r="L144" s="5"/>
+      <c r="L144" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M144" s="8">
         <f>COUNTA($B$2:B144)/175</f>
         <v>0.81714285714285717</v>
       </c>
     </row>
-    <row r="145" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145">
         <v>144</v>
       </c>
       <c r="J145" s="11"/>
-      <c r="L145" s="5"/>
+      <c r="L145" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M145" s="8">
         <f>COUNTA($B$2:B145)/175</f>
         <v>0.82285714285714284</v>
       </c>
     </row>
-    <row r="146" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146">
         <v>145</v>
       </c>
       <c r="J146" s="11"/>
-      <c r="L146" s="5"/>
+      <c r="L146" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M146" s="8">
         <f>COUNTA($B$2:B146)/175</f>
         <v>0.82857142857142863</v>
       </c>
     </row>
-    <row r="147" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147">
         <v>146</v>
       </c>
       <c r="J147" s="11"/>
-      <c r="L147" s="5"/>
+      <c r="L147" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M147" s="8">
         <f>COUNTA($B$2:B147)/175</f>
         <v>0.8342857142857143</v>
       </c>
     </row>
-    <row r="148" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>147</v>
       </c>
       <c r="J148" s="11"/>
-      <c r="L148" s="5"/>
+      <c r="L148" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M148" s="8">
         <f>COUNTA($B$2:B148)/175</f>
         <v>0.84</v>
       </c>
     </row>
-    <row r="149" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149">
         <v>148</v>
       </c>
       <c r="J149" s="11"/>
-      <c r="L149" s="5"/>
+      <c r="L149" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M149" s="8">
         <f>COUNTA($B$2:B149)/175</f>
         <v>0.84571428571428575</v>
       </c>
     </row>
-    <row r="150" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150">
         <v>149</v>
       </c>
       <c r="J150" s="11"/>
-      <c r="L150" s="5"/>
+      <c r="L150" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M150" s="8">
         <f>COUNTA($B$2:B150)/175</f>
         <v>0.85142857142857142</v>
       </c>
     </row>
-    <row r="151" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151">
         <v>150</v>
       </c>
       <c r="J151" s="11"/>
-      <c r="L151" s="5"/>
+      <c r="L151" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M151" s="8">
         <f>COUNTA($B$2:B151)/175</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="152" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152">
         <v>151</v>
       </c>
@@ -13346,7 +13873,7 @@
         <v>0.86285714285714288</v>
       </c>
     </row>
-    <row r="153" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153">
         <v>152</v>
       </c>
@@ -13366,7 +13893,7 @@
         <v>0.86857142857142855</v>
       </c>
     </row>
-    <row r="154" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154">
         <v>153</v>
       </c>
@@ -13386,7 +13913,7 @@
         <v>0.87428571428571433</v>
       </c>
     </row>
-    <row r="155" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155">
         <v>154</v>
       </c>
@@ -13406,7 +13933,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="156" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>155</v>
       </c>
@@ -13426,7 +13953,7 @@
         <v>0.88571428571428568</v>
       </c>
     </row>
-    <row r="157" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157">
         <v>156</v>
       </c>
@@ -13446,7 +13973,7 @@
         <v>0.89142857142857146</v>
       </c>
     </row>
-    <row r="158" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158">
         <v>157</v>
       </c>
@@ -13464,7 +13991,7 @@
         <v>0.89714285714285713</v>
       </c>
     </row>
-    <row r="159" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159">
         <v>158</v>
       </c>
@@ -13482,7 +14009,7 @@
         <v>0.9028571428571428</v>
       </c>
     </row>
-    <row r="160" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160">
         <v>159</v>
       </c>
@@ -13502,7 +14029,7 @@
         <v>0.90857142857142859</v>
       </c>
     </row>
-    <row r="161" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161">
         <v>160</v>
       </c>
@@ -13522,7 +14049,7 @@
         <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="162" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162">
         <v>161</v>
       </c>
@@ -13540,7 +14067,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="163" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>162</v>
       </c>
@@ -13560,315 +14087,175 @@
         <v>0.92571428571428571</v>
       </c>
     </row>
-    <row r="164" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164">
         <v>163</v>
       </c>
-      <c r="L164" s="5"/>
+      <c r="L164" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M164" s="8">
         <f>COUNTA($B$2:B164)/175</f>
         <v>0.93142857142857138</v>
       </c>
     </row>
-    <row r="165" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165">
         <v>164</v>
       </c>
-      <c r="L165" s="5"/>
+      <c r="L165" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M165" s="8">
         <f>COUNTA($B$2:B165)/175</f>
         <v>0.93714285714285717</v>
       </c>
     </row>
-    <row r="166" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166">
         <v>165</v>
       </c>
-      <c r="L166" s="5"/>
+      <c r="L166" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M166" s="8">
         <f>COUNTA($B$2:B166)/175</f>
         <v>0.94285714285714284</v>
       </c>
     </row>
-    <row r="167" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167">
         <v>166</v>
       </c>
-      <c r="L167" s="5"/>
+      <c r="L167" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M167" s="8">
         <f>COUNTA($B$2:B167)/175</f>
         <v>0.94857142857142862</v>
       </c>
     </row>
-    <row r="168" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168">
         <v>167</v>
       </c>
-      <c r="L168" s="5"/>
+      <c r="L168" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M168" s="8">
         <f>COUNTA($B$2:B168)/175</f>
         <v>0.95428571428571429</v>
       </c>
     </row>
-    <row r="169" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169">
         <v>168</v>
       </c>
-      <c r="L169" s="5"/>
+      <c r="L169" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M169" s="8">
         <f>COUNTA($B$2:B169)/175</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="170" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170">
         <v>169</v>
       </c>
-      <c r="L170" s="5"/>
+      <c r="L170" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M170" s="8">
         <f>COUNTA($B$2:B170)/175</f>
         <v>0.96571428571428575</v>
       </c>
     </row>
-    <row r="171" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171">
         <v>170</v>
       </c>
-      <c r="L171" s="5"/>
+      <c r="L171" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M171" s="8">
         <f>COUNTA($B$2:B171)/175</f>
         <v>0.97142857142857142</v>
       </c>
     </row>
-    <row r="172" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172">
         <v>171</v>
       </c>
       <c r="J172" s="11"/>
-      <c r="L172" s="5"/>
+      <c r="L172" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M172" s="8">
         <f>COUNTA($B$2:B172)/175</f>
         <v>0.97714285714285709</v>
       </c>
     </row>
-    <row r="173" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173">
         <v>172</v>
       </c>
       <c r="J173" s="11"/>
-      <c r="L173" s="5"/>
+      <c r="L173" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M173" s="8">
         <f>COUNTA($B$2:B173)/175</f>
         <v>0.98285714285714287</v>
       </c>
     </row>
-    <row r="174" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174">
         <v>173</v>
       </c>
       <c r="J174" s="11"/>
-      <c r="L174" s="5"/>
+      <c r="L174" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M174" s="8">
         <f>COUNTA($B$2:B174)/175</f>
         <v>0.98857142857142855</v>
       </c>
     </row>
-    <row r="175" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175">
         <v>174</v>
       </c>
       <c r="J175" s="11"/>
-      <c r="L175" s="5"/>
+      <c r="L175" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M175" s="8">
         <f>COUNTA($B$2:B175)/175</f>
         <v>0.99428571428571433</v>
       </c>
     </row>
-    <row r="176" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176">
         <v>175</v>
       </c>
       <c r="J176" s="11"/>
-      <c r="L176" s="5"/>
+      <c r="L176" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M176" s="10">
         <f>COUNTA($B$2:B176)/175</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF32CB5-686D-49A4-85B3-C37F8E51F26C}">
-  <dimension ref="B2:L25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.90625" customWidth="1"/>
-    <col min="11" max="11" width="36.90625" customWidth="1"/>
-    <col min="12" max="12" width="79.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="J2" s="19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="25" x14ac:dyDescent="0.25">
-      <c r="K5" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="25" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>439</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K7" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K8" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="25" x14ac:dyDescent="0.25">
-      <c r="K9" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="K12" s="21" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>758</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>704</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>709</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37571274-8551-42CE-B5B4-AA494BA78978}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13879,22 +14266,22 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" customWidth="1"/>
-    <col min="10" max="10" width="24.08984375" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" style="8"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>163</v>
       </c>
@@ -13935,7 +14322,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -13967,7 +14354,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -13995,7 +14382,7 @@
         <v>1.1428571428571429E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -14025,7 +14412,7 @@
         <v>1.7142857142857144E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4</v>
       </c>
@@ -14053,7 +14440,7 @@
         <v>2.2857142857142857E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
@@ -14083,7 +14470,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>6</v>
       </c>
@@ -14113,7 +14500,7 @@
         <v>3.4285714285714287E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>7</v>
       </c>
@@ -14141,7 +14528,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>8</v>
       </c>
@@ -14169,7 +14556,7 @@
         <v>4.5714285714285714E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>9</v>
       </c>
@@ -14199,7 +14586,7 @@
         <v>5.1428571428571428E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10</v>
       </c>
@@ -14227,7 +14614,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>11</v>
       </c>
@@ -14257,7 +14644,7 @@
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>12</v>
       </c>
@@ -14286,7 +14673,7 @@
         <v>6.8571428571428575E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>13</v>
       </c>
@@ -14316,7 +14703,7 @@
         <v>7.4285714285714288E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>14</v>
       </c>
@@ -14344,7 +14731,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>15</v>
       </c>
@@ -14374,7 +14761,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>16</v>
       </c>
@@ -14402,7 +14789,7 @@
         <v>9.1428571428571428E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>17</v>
       </c>
@@ -14430,7 +14817,7 @@
         <v>9.7142857142857142E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>18</v>
       </c>
@@ -14440,7 +14827,7 @@
         <v>0.10285714285714286</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>19</v>
       </c>
@@ -14450,7 +14837,7 @@
         <v>0.10857142857142857</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>20</v>
       </c>
@@ -14461,7 +14848,7 @@
         <v>0.11428571428571428</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>21</v>
       </c>
@@ -14471,7 +14858,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>22</v>
       </c>
@@ -14481,7 +14868,7 @@
         <v>0.12571428571428572</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>23</v>
       </c>
@@ -14491,7 +14878,7 @@
         <v>0.13142857142857142</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>24</v>
       </c>
@@ -14501,7 +14888,7 @@
         <v>0.13714285714285715</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>25</v>
       </c>
@@ -14511,7 +14898,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>26</v>
       </c>
@@ -14521,7 +14908,7 @@
         <v>0.14857142857142858</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>27</v>
       </c>
@@ -14531,7 +14918,7 @@
         <v>0.15428571428571428</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>28</v>
       </c>
@@ -14541,7 +14928,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>29</v>
       </c>
@@ -14551,7 +14938,7 @@
         <v>0.1657142857142857</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>30</v>
       </c>
@@ -14565,7 +14952,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>31</v>
       </c>
@@ -14579,7 +14966,7 @@
         <v>0.17714285714285713</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>32</v>
       </c>
@@ -14592,7 +14979,7 @@
         <v>0.18285714285714286</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>33</v>
       </c>
@@ -14606,7 +14993,7 @@
         <v>0.18857142857142858</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>34</v>
       </c>
@@ -14620,7 +15007,7 @@
         <v>0.19428571428571428</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>35</v>
       </c>
@@ -14634,7 +15021,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>36</v>
       </c>
@@ -14649,7 +15036,7 @@
       </c>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>37</v>
       </c>
@@ -14664,7 +15051,7 @@
         <v>0.21142857142857144</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>38</v>
       </c>
@@ -14679,7 +15066,7 @@
         <v>0.21714285714285714</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>39</v>
       </c>
@@ -14693,7 +15080,7 @@
         <v>0.22285714285714286</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>40</v>
       </c>
@@ -14707,7 +15094,7 @@
         <v>0.22857142857142856</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>41</v>
       </c>
@@ -14721,7 +15108,7 @@
         <v>0.23428571428571429</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>42</v>
       </c>
@@ -14736,7 +15123,7 @@
       </c>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>43</v>
       </c>
@@ -14750,7 +15137,7 @@
         <v>0.24571428571428572</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>44</v>
       </c>
@@ -14764,7 +15151,7 @@
         <v>0.25142857142857145</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>45</v>
       </c>
@@ -14780,7 +15167,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>46</v>
       </c>
@@ -14797,7 +15184,7 @@
         <v>0.26285714285714284</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>47</v>
       </c>
@@ -14814,7 +15201,7 @@
         <v>0.26857142857142857</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>48</v>
       </c>
@@ -14830,7 +15217,7 @@
         <v>0.2742857142857143</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>49</v>
       </c>
@@ -14846,7 +15233,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>50</v>
       </c>
@@ -14861,7 +15248,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>51</v>
       </c>
@@ -14877,7 +15264,7 @@
         <v>0.29142857142857143</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>52</v>
       </c>
@@ -14890,7 +15277,7 @@
         <v>0.29714285714285715</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>53</v>
       </c>
@@ -14904,7 +15291,7 @@
         <v>0.30285714285714288</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>54</v>
       </c>
@@ -14918,7 +15305,7 @@
         <v>0.30857142857142855</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>55</v>
       </c>
@@ -14932,7 +15319,7 @@
         <v>0.31428571428571428</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>56</v>
       </c>
@@ -14946,7 +15333,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>57</v>
       </c>
@@ -14960,7 +15347,7 @@
         <v>0.32571428571428573</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>58</v>
       </c>
@@ -14974,7 +15361,7 @@
         <v>0.33142857142857141</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>59</v>
       </c>
@@ -14989,7 +15376,7 @@
         <v>0.33714285714285713</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>60</v>
       </c>
@@ -15003,7 +15390,7 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>61</v>
       </c>
@@ -15017,7 +15404,7 @@
         <v>0.34857142857142859</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>62</v>
       </c>
@@ -15031,7 +15418,7 @@
         <v>0.35428571428571426</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>63</v>
       </c>
@@ -15045,7 +15432,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>64</v>
       </c>
@@ -15059,7 +15446,7 @@
         <v>0.36571428571428571</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>65</v>
       </c>
@@ -15074,7 +15461,7 @@
         <v>0.37142857142857144</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>66</v>
       </c>
@@ -15088,7 +15475,7 @@
         <v>0.37714285714285717</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>67</v>
       </c>
@@ -15102,7 +15489,7 @@
         <v>0.38285714285714284</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>68</v>
       </c>
@@ -15116,7 +15503,7 @@
         <v>0.38857142857142857</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>69</v>
       </c>
@@ -15130,7 +15517,7 @@
         <v>0.39428571428571429</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>70</v>
       </c>
@@ -15144,7 +15531,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>71</v>
       </c>
@@ -15154,7 +15541,7 @@
         <v>0.40571428571428569</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>72</v>
       </c>
@@ -15164,7 +15551,7 @@
         <v>0.41142857142857142</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>73</v>
       </c>
@@ -15174,7 +15561,7 @@
         <v>0.41714285714285715</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>74</v>
       </c>
@@ -15184,7 +15571,7 @@
         <v>0.42285714285714288</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>75</v>
       </c>
@@ -15194,7 +15581,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>76</v>
       </c>
@@ -15204,7 +15591,7 @@
         <v>0.43428571428571427</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>77</v>
       </c>
@@ -15214,7 +15601,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>78</v>
       </c>
@@ -15224,7 +15611,7 @@
         <v>0.44571428571428573</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>79</v>
       </c>
@@ -15234,7 +15621,7 @@
         <v>0.4514285714285714</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>80</v>
       </c>
@@ -15244,7 +15631,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>81</v>
       </c>
@@ -15254,7 +15641,7 @@
         <v>0.46285714285714286</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>82</v>
       </c>
@@ -15264,7 +15651,7 @@
         <v>0.46857142857142858</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>83</v>
       </c>
@@ -15274,7 +15661,7 @@
         <v>0.47428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>84</v>
       </c>
@@ -15284,7 +15671,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>85</v>
       </c>
@@ -15294,7 +15681,7 @@
         <v>0.48571428571428571</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>86</v>
       </c>
@@ -15304,7 +15691,7 @@
         <v>0.49142857142857144</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>87</v>
       </c>
@@ -15314,7 +15701,7 @@
         <v>0.49714285714285716</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>88</v>
       </c>
@@ -15324,7 +15711,7 @@
         <v>0.50285714285714289</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>89</v>
       </c>
@@ -15334,7 +15721,7 @@
         <v>0.50857142857142856</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>90</v>
       </c>
@@ -15344,7 +15731,7 @@
         <v>0.51428571428571423</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>91</v>
       </c>
@@ -15354,7 +15741,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>92</v>
       </c>
@@ -15364,7 +15751,7 @@
         <v>0.52571428571428569</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>93</v>
       </c>
@@ -15374,7 +15761,7 @@
         <v>0.53142857142857147</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>94</v>
       </c>
@@ -15384,7 +15771,7 @@
         <v>0.53714285714285714</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>95</v>
       </c>
@@ -15394,7 +15781,7 @@
         <v>0.54285714285714282</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>96</v>
       </c>
@@ -15404,7 +15791,7 @@
         <v>0.5485714285714286</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>97</v>
       </c>
@@ -15414,7 +15801,7 @@
         <v>0.55428571428571427</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>98</v>
       </c>
@@ -15424,7 +15811,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>99</v>
       </c>
@@ -15434,7 +15821,7 @@
         <v>0.56571428571428573</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>100</v>
       </c>
@@ -15444,7 +15831,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>101</v>
       </c>
@@ -15454,7 +15841,7 @@
         <v>0.57714285714285718</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>102</v>
       </c>
@@ -15464,7 +15851,7 @@
         <v>0.58285714285714285</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>103</v>
       </c>
@@ -15474,7 +15861,7 @@
         <v>0.58857142857142852</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>104</v>
       </c>
@@ -15484,7 +15871,7 @@
         <v>0.59428571428571431</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>105</v>
       </c>
@@ -15494,7 +15881,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>106</v>
       </c>
@@ -15504,7 +15891,7 @@
         <v>0.60571428571428576</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>107</v>
       </c>
@@ -15514,7 +15901,7 @@
         <v>0.61142857142857143</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>108</v>
       </c>
@@ -15524,7 +15911,7 @@
         <v>0.6171428571428571</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>109</v>
       </c>
@@ -15534,7 +15921,7 @@
         <v>0.62285714285714289</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>110</v>
       </c>
@@ -15544,7 +15931,7 @@
         <v>0.62857142857142856</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>111</v>
       </c>
@@ -15554,7 +15941,7 @@
         <v>0.63428571428571423</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>112</v>
       </c>
@@ -15564,7 +15951,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>113</v>
       </c>
@@ -15574,7 +15961,7 @@
         <v>0.64571428571428569</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>114</v>
       </c>
@@ -15584,7 +15971,7 @@
         <v>0.65142857142857147</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>115</v>
       </c>
@@ -15594,7 +15981,7 @@
         <v>0.65714285714285714</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>116</v>
       </c>
@@ -15604,7 +15991,7 @@
         <v>0.66285714285714281</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>117</v>
       </c>
@@ -15614,7 +16001,7 @@
         <v>0.66857142857142859</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>118</v>
       </c>
@@ -15624,7 +16011,7 @@
         <v>0.67428571428571427</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>119</v>
       </c>
@@ -15634,7 +16021,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>120</v>
       </c>
@@ -15644,7 +16031,7 @@
         <v>0.68571428571428572</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>121</v>
       </c>
@@ -15654,7 +16041,7 @@
         <v>0.69142857142857139</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>122</v>
       </c>
@@ -15664,7 +16051,7 @@
         <v>0.69714285714285718</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>123</v>
       </c>
@@ -15674,7 +16061,7 @@
         <v>0.70285714285714285</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>124</v>
       </c>
@@ -15684,7 +16071,7 @@
         <v>0.70857142857142852</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>125</v>
       </c>
@@ -15694,7 +16081,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>126</v>
       </c>
@@ -15704,7 +16091,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>127</v>
       </c>
@@ -15714,7 +16101,7 @@
         <v>0.72571428571428576</v>
       </c>
     </row>
-    <row r="129" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>128</v>
       </c>
@@ -15724,7 +16111,7 @@
         <v>0.73142857142857143</v>
       </c>
     </row>
-    <row r="130" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>129</v>
       </c>
@@ -15734,7 +16121,7 @@
         <v>0.7371428571428571</v>
       </c>
     </row>
-    <row r="131" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>130</v>
       </c>
@@ -15744,7 +16131,7 @@
         <v>0.74285714285714288</v>
       </c>
     </row>
-    <row r="132" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>131</v>
       </c>
@@ -15754,7 +16141,7 @@
         <v>0.74857142857142855</v>
       </c>
     </row>
-    <row r="133" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>132</v>
       </c>
@@ -15764,7 +16151,7 @@
         <v>0.75428571428571434</v>
       </c>
     </row>
-    <row r="134" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>133</v>
       </c>
@@ -15774,7 +16161,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="135" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>134</v>
       </c>
@@ -15784,7 +16171,7 @@
         <v>0.76571428571428568</v>
       </c>
     </row>
-    <row r="136" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>135</v>
       </c>
@@ -15794,7 +16181,7 @@
         <v>0.77142857142857146</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>136</v>
       </c>
@@ -15804,7 +16191,7 @@
         <v>0.77714285714285714</v>
       </c>
     </row>
-    <row r="138" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>137</v>
       </c>
@@ -15814,7 +16201,7 @@
         <v>0.78285714285714281</v>
       </c>
     </row>
-    <row r="139" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>138</v>
       </c>
@@ -15824,7 +16211,7 @@
         <v>0.78857142857142859</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>139</v>
       </c>
@@ -15834,7 +16221,7 @@
         <v>0.79428571428571426</v>
       </c>
     </row>
-    <row r="141" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>140</v>
       </c>
@@ -15844,7 +16231,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="142" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>141</v>
       </c>
@@ -15854,7 +16241,7 @@
         <v>0.80571428571428572</v>
       </c>
     </row>
-    <row r="143" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>142</v>
       </c>
@@ -15864,7 +16251,7 @@
         <v>0.81142857142857139</v>
       </c>
     </row>
-    <row r="144" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>143</v>
       </c>
@@ -15874,7 +16261,7 @@
         <v>0.81714285714285717</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145">
         <v>144</v>
       </c>
@@ -15884,7 +16271,7 @@
         <v>0.82285714285714284</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146">
         <v>145</v>
       </c>
@@ -15894,7 +16281,7 @@
         <v>0.82857142857142863</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147">
         <v>146</v>
       </c>
@@ -15904,7 +16291,7 @@
         <v>0.8342857142857143</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>147</v>
       </c>
@@ -15914,7 +16301,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149">
         <v>148</v>
       </c>
@@ -15924,7 +16311,7 @@
         <v>0.84571428571428575</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150">
         <v>149</v>
       </c>
@@ -15934,7 +16321,7 @@
         <v>0.85142857142857142</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151">
         <v>150</v>
       </c>
@@ -15944,7 +16331,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152">
         <v>151</v>
       </c>
@@ -15954,7 +16341,7 @@
         <v>0.86285714285714288</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153">
         <v>152</v>
       </c>
@@ -15964,7 +16351,7 @@
         <v>0.86857142857142855</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154">
         <v>153</v>
       </c>
@@ -15974,7 +16361,7 @@
         <v>0.87428571428571433</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155">
         <v>154</v>
       </c>
@@ -15984,7 +16371,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>155</v>
       </c>
@@ -15994,7 +16381,7 @@
         <v>0.88571428571428568</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157">
         <v>156</v>
       </c>
@@ -16004,7 +16391,7 @@
         <v>0.89142857142857146</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158">
         <v>157</v>
       </c>
@@ -16014,7 +16401,7 @@
         <v>0.89714285714285713</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159">
         <v>158</v>
       </c>
@@ -16024,7 +16411,7 @@
         <v>0.9028571428571428</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160">
         <v>159</v>
       </c>
@@ -16034,7 +16421,7 @@
         <v>0.90857142857142859</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161">
         <v>160</v>
       </c>
@@ -16044,7 +16431,7 @@
         <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162">
         <v>161</v>
       </c>
@@ -16054,7 +16441,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>162</v>
       </c>
@@ -16064,7 +16451,7 @@
         <v>0.92571428571428571</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164">
         <v>163</v>
       </c>
@@ -16074,7 +16461,7 @@
         <v>0.93142857142857138</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165">
         <v>164</v>
       </c>
@@ -16084,7 +16471,7 @@
         <v>0.93714285714285717</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166">
         <v>165</v>
       </c>
@@ -16094,7 +16481,7 @@
         <v>0.94285714285714284</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167">
         <v>166</v>
       </c>
@@ -16104,7 +16491,7 @@
         <v>0.94857142857142862</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168">
         <v>167</v>
       </c>
@@ -16114,7 +16501,7 @@
         <v>0.95428571428571429</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169">
         <v>168</v>
       </c>
@@ -16124,7 +16511,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170">
         <v>169</v>
       </c>
@@ -16134,7 +16521,7 @@
         <v>0.96571428571428575</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171">
         <v>170</v>
       </c>
@@ -16144,7 +16531,7 @@
         <v>0.97142857142857142</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172">
         <v>171</v>
       </c>
@@ -16154,7 +16541,7 @@
         <v>0.97714285714285709</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173">
         <v>172</v>
       </c>
@@ -16164,7 +16551,7 @@
         <v>0.98285714285714287</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174">
         <v>173</v>
       </c>
@@ -16174,7 +16561,7 @@
         <v>0.98857142857142855</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175">
         <v>174</v>
       </c>
@@ -16184,7 +16571,7 @@
         <v>0.99428571428571433</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176">
         <v>175</v>
       </c>
@@ -16200,7 +16587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DDF19-FD3D-41AC-B187-43DEDFD2533C}">
   <dimension ref="C7:K15"/>
   <sheetViews>
@@ -16208,9 +16595,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G7" s="16">
         <v>0.24</v>
       </c>
@@ -16230,19 +16617,210 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C13" s="19" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D14" s="35" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D15" s="35" t="s">
         <v>760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF32CB5-686D-49A4-85B3-C37F8E51F26C}">
+  <dimension ref="B2:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" customWidth="1"/>
+    <col min="12" max="12" width="79.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J2" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K5" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K7" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K9" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="K12" s="21" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>704</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>709</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>
